--- a/data/pca/factorExposure/factorExposure_2011-06-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-06-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -704,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,39 +747,63 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.02035516616579459</v>
+        <v>-0.01878643864327145</v>
       </c>
       <c r="C2">
-        <v>0.005399466618520412</v>
+        <v>0.001339236503987339</v>
       </c>
       <c r="D2">
-        <v>-0.05278217706774142</v>
+        <v>-0.006696772799762648</v>
       </c>
       <c r="E2">
-        <v>0.02947216453760469</v>
+        <v>-0.04093043470439913</v>
       </c>
       <c r="F2">
-        <v>0.04149055716409762</v>
+        <v>-0.0005640079437531028</v>
       </c>
       <c r="G2">
-        <v>-0.02347945768509292</v>
+        <v>0.02886773944988085</v>
       </c>
       <c r="H2">
-        <v>-0.02489330470780525</v>
+        <v>0.01370054419981388</v>
       </c>
       <c r="I2">
-        <v>0.06398727038159646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.04013461602986718</v>
+      </c>
+      <c r="J2">
+        <v>0.02603636902822864</v>
+      </c>
+      <c r="K2">
+        <v>0.03588925850882261</v>
+      </c>
+      <c r="L2">
+        <v>0.05268306225842598</v>
+      </c>
+      <c r="M2">
+        <v>0.006647596394757402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -793,39 +829,63 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.07206164757364111</v>
+        <v>-0.1036180860023317</v>
       </c>
       <c r="C4">
-        <v>-0.05682461739648854</v>
+        <v>-0.07704983362108821</v>
       </c>
       <c r="D4">
-        <v>-0.02945301858899424</v>
+        <v>-0.02203332683837059</v>
       </c>
       <c r="E4">
-        <v>0.04231146789957144</v>
+        <v>-0.04870603279836417</v>
       </c>
       <c r="F4">
-        <v>-0.009215829267200978</v>
+        <v>0.1155899025738162</v>
       </c>
       <c r="G4">
-        <v>-0.01826160004772959</v>
+        <v>-0.01222994745121802</v>
       </c>
       <c r="H4">
-        <v>0.006344636025079075</v>
+        <v>-0.05706656273667342</v>
       </c>
       <c r="I4">
-        <v>-0.00419814375340237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>-0.0009343105209402894</v>
+      </c>
+      <c r="J4">
+        <v>-0.07900599998737427</v>
+      </c>
+      <c r="K4">
+        <v>0.01264623777801485</v>
+      </c>
+      <c r="L4">
+        <v>-0.071905372337184</v>
+      </c>
+      <c r="M4">
+        <v>-0.04029899791218358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -851,329 +911,473 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1333582029753234</v>
+        <v>-0.1308026223805931</v>
       </c>
       <c r="C6">
-        <v>-0.03898962025365318</v>
+        <v>-0.0561914795776895</v>
       </c>
       <c r="D6">
-        <v>-0.06255279488125379</v>
+        <v>-0.008933911972698994</v>
       </c>
       <c r="E6">
-        <v>0.1023487848372707</v>
+        <v>-0.01742059722646862</v>
       </c>
       <c r="F6">
-        <v>-0.06784599456614807</v>
+        <v>0.03931865199749318</v>
       </c>
       <c r="G6">
-        <v>0.09278705821534755</v>
+        <v>-0.1852243117742655</v>
       </c>
       <c r="H6">
-        <v>0.2946040070468504</v>
+        <v>0.1037633377832296</v>
       </c>
       <c r="I6">
-        <v>0.03324574643263027</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.03441100481794913</v>
+      </c>
+      <c r="J6">
+        <v>-0.3976130656705233</v>
+      </c>
+      <c r="K6">
+        <v>-0.1438092748710179</v>
+      </c>
+      <c r="L6">
+        <v>0.09964320824764676</v>
+      </c>
+      <c r="M6">
+        <v>-0.03616529862832672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.06857377760261034</v>
+        <v>-0.07155730702393485</v>
       </c>
       <c r="C7">
-        <v>-0.05015539699226109</v>
+        <v>-0.0737567300982833</v>
       </c>
       <c r="D7">
-        <v>-0.05570034581342845</v>
+        <v>-0.006858024421442883</v>
       </c>
       <c r="E7">
-        <v>0.04585938243844936</v>
+        <v>-0.04686811515330163</v>
       </c>
       <c r="F7">
-        <v>-0.03284078455057868</v>
+        <v>0.01798431151250134</v>
       </c>
       <c r="G7">
-        <v>-0.001025121698212091</v>
+        <v>0.00853492799399831</v>
       </c>
       <c r="H7">
-        <v>-0.01308777234795777</v>
+        <v>-0.05001859391435056</v>
       </c>
       <c r="I7">
-        <v>-0.07136450079526832</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-0.04107899476844921</v>
+      </c>
+      <c r="J7">
+        <v>0.006975609002599251</v>
+      </c>
+      <c r="K7">
+        <v>0.0173684585476458</v>
+      </c>
+      <c r="L7">
+        <v>-0.08488151638464109</v>
+      </c>
+      <c r="M7">
+        <v>0.0234338164047924</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.02563028156166952</v>
+        <v>-0.03766792648846577</v>
       </c>
       <c r="C8">
-        <v>-0.01797455432593988</v>
+        <v>-0.01181390525837884</v>
       </c>
       <c r="D8">
-        <v>-0.03412438214216967</v>
+        <v>-0.01890144344358016</v>
       </c>
       <c r="E8">
-        <v>0.06078150697715654</v>
+        <v>-0.04907755777898631</v>
       </c>
       <c r="F8">
-        <v>0.05138096643982018</v>
+        <v>0.1002062782818394</v>
       </c>
       <c r="G8">
-        <v>0.04303002200342394</v>
+        <v>-0.008744338497835744</v>
       </c>
       <c r="H8">
-        <v>-0.02579654736512303</v>
+        <v>-0.02306499812331876</v>
       </c>
       <c r="I8">
-        <v>-0.04058414131972171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.0162839989378968</v>
+      </c>
+      <c r="J8">
+        <v>-0.06410336656932554</v>
+      </c>
+      <c r="K8">
+        <v>0.03271115740418416</v>
+      </c>
+      <c r="L8">
+        <v>-0.05281010050935607</v>
+      </c>
+      <c r="M8">
+        <v>-0.04845488124374606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.07243558896192885</v>
+        <v>-0.0835392410761997</v>
       </c>
       <c r="C9">
-        <v>-0.07269984213836099</v>
+        <v>-0.0672294550382735</v>
       </c>
       <c r="D9">
-        <v>-0.03521887213241186</v>
+        <v>-0.002631971390223168</v>
       </c>
       <c r="E9">
-        <v>0.03631442506948099</v>
+        <v>-0.03431205679678059</v>
       </c>
       <c r="F9">
-        <v>0.007703298670279978</v>
+        <v>0.108425495861692</v>
       </c>
       <c r="G9">
-        <v>-0.02728804942156306</v>
+        <v>-0.00413198588895082</v>
       </c>
       <c r="H9">
-        <v>0.0006007571429026097</v>
+        <v>-0.0550360479170726</v>
       </c>
       <c r="I9">
-        <v>-0.05018290279544513</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-0.02389228987506439</v>
+      </c>
+      <c r="J9">
+        <v>-0.04733244812665151</v>
+      </c>
+      <c r="K9">
+        <v>0.01102950480314443</v>
+      </c>
+      <c r="L9">
+        <v>-0.03396384281366733</v>
+      </c>
+      <c r="M9">
+        <v>-0.001524152767631152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.06195112056040986</v>
+        <v>-0.1098753977705346</v>
       </c>
       <c r="C10">
-        <v>0.1385463530978681</v>
+        <v>0.1697095801594906</v>
       </c>
       <c r="D10">
-        <v>-0.0576714222420129</v>
+        <v>-0.01175074464260381</v>
       </c>
       <c r="E10">
-        <v>0.03981471574110765</v>
+        <v>-0.05019312932949066</v>
       </c>
       <c r="F10">
-        <v>-0.03357554987394345</v>
+        <v>-0.02001368799656528</v>
       </c>
       <c r="G10">
-        <v>0.0210616934391942</v>
+        <v>-0.006272918101081426</v>
       </c>
       <c r="H10">
-        <v>0.04178443855330301</v>
+        <v>-0.0004565537541584814</v>
       </c>
       <c r="I10">
-        <v>-0.05481491738683433</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-0.0509420644342365</v>
+      </c>
+      <c r="J10">
+        <v>0.05568992803633652</v>
+      </c>
+      <c r="K10">
+        <v>-0.0163794969289326</v>
+      </c>
+      <c r="L10">
+        <v>0.007649843383315732</v>
+      </c>
+      <c r="M10">
+        <v>0.08224855735260575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.06579196203453662</v>
+        <v>-0.06724325684810932</v>
       </c>
       <c r="C11">
-        <v>-0.08951797553389806</v>
+        <v>-0.07016061509397144</v>
       </c>
       <c r="D11">
-        <v>-0.03470212336228064</v>
+        <v>0.03067732893958132</v>
       </c>
       <c r="E11">
-        <v>0.008027776603052594</v>
+        <v>-0.01766362867435896</v>
       </c>
       <c r="F11">
-        <v>0.0580205432332148</v>
+        <v>0.10651537245062</v>
       </c>
       <c r="G11">
-        <v>-0.01965264515508741</v>
+        <v>0.02371416533391862</v>
       </c>
       <c r="H11">
-        <v>-0.05398516089341019</v>
+        <v>-0.04265317581506792</v>
       </c>
       <c r="I11">
-        <v>-0.08632430842382108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-0.06247568421117156</v>
+      </c>
+      <c r="J11">
+        <v>0.04917999306761827</v>
+      </c>
+      <c r="K11">
+        <v>0.06757084467726684</v>
+      </c>
+      <c r="L11">
+        <v>0.0190823534177964</v>
+      </c>
+      <c r="M11">
+        <v>0.08181066936924898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.06101231191595093</v>
+        <v>-0.07252796041259123</v>
       </c>
       <c r="C12">
-        <v>-0.05225446667410419</v>
+        <v>-0.06299400362174526</v>
       </c>
       <c r="D12">
-        <v>-0.01677349392508303</v>
+        <v>0.03077585059341162</v>
       </c>
       <c r="E12">
-        <v>0.02418581055553725</v>
+        <v>-0.007449496717998545</v>
       </c>
       <c r="F12">
-        <v>0.006368216756417147</v>
+        <v>0.1207153460922375</v>
       </c>
       <c r="G12">
-        <v>-0.009284874601012752</v>
+        <v>0.02822892576061335</v>
       </c>
       <c r="H12">
-        <v>-0.05080145820244614</v>
+        <v>-0.02818448754102521</v>
       </c>
       <c r="I12">
-        <v>-0.1046318514288603</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-0.06138484145148463</v>
+      </c>
+      <c r="J12">
+        <v>0.01671632112473623</v>
+      </c>
+      <c r="K12">
+        <v>0.09258190416563861</v>
+      </c>
+      <c r="L12">
+        <v>-0.009848845246160139</v>
+      </c>
+      <c r="M12">
+        <v>0.1131338110568182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.04948617981281395</v>
+        <v>-0.04399574893680901</v>
       </c>
       <c r="C13">
-        <v>-0.01240503576795566</v>
+        <v>-0.03102415108740418</v>
       </c>
       <c r="D13">
-        <v>0.001659520088855213</v>
+        <v>-0.02175182745905276</v>
       </c>
       <c r="E13">
-        <v>0.01487777854469176</v>
+        <v>-0.010758000215185</v>
       </c>
       <c r="F13">
-        <v>0.02246038027066266</v>
+        <v>0.04354568569327517</v>
       </c>
       <c r="G13">
-        <v>-0.04743140301088141</v>
+        <v>0.02148763150081729</v>
       </c>
       <c r="H13">
-        <v>-0.009246462926708623</v>
+        <v>-0.03430691248156075</v>
       </c>
       <c r="I13">
-        <v>-0.06524475710782089</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.006544272144919915</v>
+      </c>
+      <c r="J13">
+        <v>-0.02494926288305802</v>
+      </c>
+      <c r="K13">
+        <v>0.01135578860261363</v>
+      </c>
+      <c r="L13">
+        <v>-0.06852367066702343</v>
+      </c>
+      <c r="M13">
+        <v>-0.02921601737405723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.04114075969720306</v>
+        <v>-0.04421014501087116</v>
       </c>
       <c r="C14">
-        <v>-0.02466407985541737</v>
+        <v>-0.02545182137136498</v>
       </c>
       <c r="D14">
-        <v>-0.01538043709116853</v>
+        <v>0.006077307301907823</v>
       </c>
       <c r="E14">
-        <v>-0.01205076523620942</v>
+        <v>-0.01864091863102877</v>
       </c>
       <c r="F14">
-        <v>-0.009910611660577384</v>
+        <v>0.04612714066167963</v>
       </c>
       <c r="G14">
-        <v>0.003062799908172468</v>
+        <v>0.02369550513982668</v>
       </c>
       <c r="H14">
-        <v>0.08635173361177739</v>
+        <v>-0.06549607073948867</v>
       </c>
       <c r="I14">
-        <v>-0.05791384008421561</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.002564799242848363</v>
+      </c>
+      <c r="J14">
+        <v>-0.03494780761145339</v>
+      </c>
+      <c r="K14">
+        <v>-0.04270893983239319</v>
+      </c>
+      <c r="L14">
+        <v>-0.04501968999552679</v>
+      </c>
+      <c r="M14">
+        <v>-0.03171982509083165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03826060217438373</v>
+        <v>-0.03055737485041816</v>
       </c>
       <c r="C15">
-        <v>0.009396195200845836</v>
+        <v>-0.008112250355105089</v>
       </c>
       <c r="D15">
-        <v>0.004917491155931457</v>
+        <v>-0.06022179377112009</v>
       </c>
       <c r="E15">
-        <v>0.02083590586875146</v>
+        <v>-0.005790066835955809</v>
       </c>
       <c r="F15">
-        <v>-0.01464581367499623</v>
+        <v>0.004316655186856395</v>
       </c>
       <c r="G15">
-        <v>-0.01272974747304532</v>
+        <v>-0.03699593267792286</v>
       </c>
       <c r="H15">
-        <v>0.01437228946499356</v>
+        <v>-0.0373328982538132</v>
       </c>
       <c r="I15">
-        <v>-0.02718766096956352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.03040254139693743</v>
+      </c>
+      <c r="J15">
+        <v>-0.02572792374322956</v>
+      </c>
+      <c r="K15">
+        <v>-0.03811234512006228</v>
+      </c>
+      <c r="L15">
+        <v>-0.05151729673016969</v>
+      </c>
+      <c r="M15">
+        <v>0.01228444356306079</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.05233911104825061</v>
+        <v>-0.07148619225845938</v>
       </c>
       <c r="C16">
-        <v>-0.08553682441586924</v>
+        <v>-0.0785585948258273</v>
       </c>
       <c r="D16">
-        <v>-0.02555882236447589</v>
+        <v>0.02079711320821824</v>
       </c>
       <c r="E16">
-        <v>0.02631367923174933</v>
+        <v>-0.0163827037484625</v>
       </c>
       <c r="F16">
-        <v>0.03195615976547121</v>
+        <v>0.1078759600778011</v>
       </c>
       <c r="G16">
-        <v>-0.03401094242807205</v>
+        <v>0.03547540992384761</v>
       </c>
       <c r="H16">
-        <v>-0.05164701680644864</v>
+        <v>-0.04139180319624958</v>
       </c>
       <c r="I16">
-        <v>-0.1223095095410714</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>-0.06490031666758148</v>
+      </c>
+      <c r="J16">
+        <v>0.02397268389861321</v>
+      </c>
+      <c r="K16">
+        <v>0.08136368119456351</v>
+      </c>
+      <c r="L16">
+        <v>-0.007348775520715586</v>
+      </c>
+      <c r="M16">
+        <v>0.0686980663302053</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1199,10 +1403,22 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1228,10 +1444,22 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1257,213 +1485,309 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.04192890678949013</v>
+        <v>-0.04411064223411252</v>
       </c>
       <c r="C20">
-        <v>-0.04477225158259093</v>
+        <v>-0.03180861764734065</v>
       </c>
       <c r="D20">
-        <v>-0.00976234653007154</v>
+        <v>-0.02538578023910063</v>
       </c>
       <c r="E20">
-        <v>0.009686931227462198</v>
+        <v>-0.01730246357342599</v>
       </c>
       <c r="F20">
-        <v>0.008151809517082501</v>
+        <v>0.05486285640135807</v>
       </c>
       <c r="G20">
-        <v>-0.04054760586333275</v>
+        <v>0.02609553514053811</v>
       </c>
       <c r="H20">
-        <v>-0.009597127742762595</v>
+        <v>-0.03726430568118565</v>
       </c>
       <c r="I20">
-        <v>-0.07563159150427184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>-0.03923501202552921</v>
+      </c>
+      <c r="J20">
+        <v>-0.04845486223016827</v>
+      </c>
+      <c r="K20">
+        <v>0.01166963805545713</v>
+      </c>
+      <c r="L20">
+        <v>-0.05683844615424067</v>
+      </c>
+      <c r="M20">
+        <v>0.03045228797696096</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.01398887745737989</v>
+        <v>-0.02858287144384451</v>
       </c>
       <c r="C21">
-        <v>-0.01808302917437221</v>
+        <v>-0.02030218954379137</v>
       </c>
       <c r="D21">
-        <v>-0.003713977415953948</v>
+        <v>-0.008264042270008858</v>
       </c>
       <c r="E21">
-        <v>0.07856665911989287</v>
+        <v>-0.02543124473678484</v>
       </c>
       <c r="F21">
-        <v>-0.04833217427259642</v>
+        <v>0.06290975296077624</v>
       </c>
       <c r="G21">
-        <v>0.08544315770589005</v>
+        <v>-0.09077240357682718</v>
       </c>
       <c r="H21">
-        <v>0.0293358372524955</v>
+        <v>-0.01028231199431177</v>
       </c>
       <c r="I21">
-        <v>0.0265315969122249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>-0.07603114657447806</v>
+      </c>
+      <c r="J21">
+        <v>-0.00169504685859667</v>
+      </c>
+      <c r="K21">
+        <v>-0.03579364259398034</v>
+      </c>
+      <c r="L21">
+        <v>-0.1021653503599725</v>
+      </c>
+      <c r="M21">
+        <v>-0.02374804758767226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.01115932053033874</v>
+        <v>-0.0405894818627156</v>
       </c>
       <c r="C22">
-        <v>-0.05270364074705385</v>
+        <v>-0.03326325058603983</v>
       </c>
       <c r="D22">
-        <v>0.1492216354781877</v>
+        <v>-0.653832924300339</v>
       </c>
       <c r="E22">
-        <v>0.4501562906247598</v>
+        <v>-0.05196864542964062</v>
       </c>
       <c r="F22">
-        <v>-0.2238216637531987</v>
+        <v>-0.07971244150095419</v>
       </c>
       <c r="G22">
-        <v>-0.2436135404429898</v>
+        <v>0.07171896388068374</v>
       </c>
       <c r="H22">
-        <v>-0.171831642260053</v>
+        <v>0.06767372960200932</v>
       </c>
       <c r="I22">
-        <v>0.245147667722335</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>-0.120745271486038</v>
+      </c>
+      <c r="J22">
+        <v>0.04777415806436076</v>
+      </c>
+      <c r="K22">
+        <v>-0.03273619378233267</v>
+      </c>
+      <c r="L22">
+        <v>0.02769979818723508</v>
+      </c>
+      <c r="M22">
+        <v>-0.03988240621553173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.01213629533430753</v>
+        <v>-0.0412965629610492</v>
       </c>
       <c r="C23">
-        <v>-0.05168126471397073</v>
+        <v>-0.03365844608889421</v>
       </c>
       <c r="D23">
-        <v>0.1493528516933069</v>
+        <v>-0.6554579976660239</v>
       </c>
       <c r="E23">
-        <v>0.4514855193828998</v>
+        <v>-0.05246133649677402</v>
       </c>
       <c r="F23">
-        <v>-0.2213208844187867</v>
+        <v>-0.07519555472524184</v>
       </c>
       <c r="G23">
-        <v>-0.2399981284370532</v>
+        <v>0.07144679892720633</v>
       </c>
       <c r="H23">
-        <v>-0.1698306801133666</v>
+        <v>0.06977328864700978</v>
       </c>
       <c r="I23">
-        <v>0.2446785853219408</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>-0.1178451013152326</v>
+      </c>
+      <c r="J23">
+        <v>0.04517863102402575</v>
+      </c>
+      <c r="K23">
+        <v>-0.0342056751948558</v>
+      </c>
+      <c r="L23">
+        <v>0.03127682548185442</v>
+      </c>
+      <c r="M23">
+        <v>-0.04061140165611443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.0715857725595357</v>
+        <v>-0.07631490581910347</v>
       </c>
       <c r="C24">
-        <v>-0.08298590234696222</v>
+        <v>-0.07536421630408421</v>
       </c>
       <c r="D24">
-        <v>-0.03490231700760805</v>
+        <v>0.01873012075156632</v>
       </c>
       <c r="E24">
-        <v>0.03702857828588917</v>
+        <v>-0.01959446888785258</v>
       </c>
       <c r="F24">
-        <v>0.03579044416409357</v>
+        <v>0.1118789273110301</v>
       </c>
       <c r="G24">
-        <v>-0.01835893343729261</v>
+        <v>0.02233620286209286</v>
       </c>
       <c r="H24">
-        <v>-0.03582415987296481</v>
+        <v>-0.03001872359990039</v>
       </c>
       <c r="I24">
-        <v>-0.09666747214734728</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>-0.06071893463915193</v>
+      </c>
+      <c r="J24">
+        <v>0.02335211366283291</v>
+      </c>
+      <c r="K24">
+        <v>0.06906589780048476</v>
+      </c>
+      <c r="L24">
+        <v>0.02111290385140753</v>
+      </c>
+      <c r="M24">
+        <v>0.08038885453921539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.06570460536100245</v>
+        <v>-0.07343741180590257</v>
       </c>
       <c r="C25">
-        <v>-0.04665883569037196</v>
+        <v>-0.04933036096018338</v>
       </c>
       <c r="D25">
-        <v>-0.02877043764217732</v>
+        <v>0.03228410470879924</v>
       </c>
       <c r="E25">
-        <v>0.04412668922163235</v>
+        <v>-0.01591046708442275</v>
       </c>
       <c r="F25">
-        <v>0.04418707859184452</v>
+        <v>0.1178565725813727</v>
       </c>
       <c r="G25">
-        <v>-0.02905074894219248</v>
+        <v>0.03975219769265796</v>
       </c>
       <c r="H25">
-        <v>-0.00621579504311552</v>
+        <v>-0.04465261349596469</v>
       </c>
       <c r="I25">
-        <v>-0.07928270010587683</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>-0.06115810154648243</v>
+      </c>
+      <c r="J25">
+        <v>0.01856877694076343</v>
+      </c>
+      <c r="K25">
+        <v>0.07945787625949348</v>
+      </c>
+      <c r="L25">
+        <v>0.04057823710550507</v>
+      </c>
+      <c r="M25">
+        <v>0.08369429672650978</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.03960228471477942</v>
+        <v>-0.04194657916198265</v>
       </c>
       <c r="C26">
-        <v>-0.03284084834282115</v>
+        <v>-0.02292939259512976</v>
       </c>
       <c r="D26">
-        <v>-0.03911147225893669</v>
+        <v>-0.01330827373182412</v>
       </c>
       <c r="E26">
-        <v>-0.002021450648826308</v>
+        <v>-0.001589718818048986</v>
       </c>
       <c r="F26">
-        <v>-0.0169752314694709</v>
+        <v>0.03314291744993272</v>
       </c>
       <c r="G26">
-        <v>-0.03132484623416314</v>
+        <v>0.009003021323942819</v>
       </c>
       <c r="H26">
-        <v>-0.0006171187467621037</v>
+        <v>-0.03712440841274982</v>
       </c>
       <c r="I26">
-        <v>-0.07680218241115495</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>-0.02648829255356046</v>
+      </c>
+      <c r="J26">
+        <v>-0.007613281053911647</v>
+      </c>
+      <c r="K26">
+        <v>-0.07782947666165124</v>
+      </c>
+      <c r="L26">
+        <v>-0.1361138914015704</v>
+      </c>
+      <c r="M26">
+        <v>-0.006252381805257857</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1489,271 +1813,391 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.1212082618764072</v>
+        <v>-0.1455817629452862</v>
       </c>
       <c r="C28">
-        <v>0.2960562168597081</v>
+        <v>0.2866905998858935</v>
       </c>
       <c r="D28">
-        <v>-0.03329506656926137</v>
+        <v>0.006551378822386955</v>
       </c>
       <c r="E28">
-        <v>-0.008208382977325028</v>
+        <v>-0.02684026107704592</v>
       </c>
       <c r="F28">
-        <v>-0.0470343423517294</v>
+        <v>-0.005147765935470228</v>
       </c>
       <c r="G28">
-        <v>0.02807070781010209</v>
+        <v>-0.01291943859199811</v>
       </c>
       <c r="H28">
-        <v>-0.0537691193831869</v>
+        <v>0.01526414930666803</v>
       </c>
       <c r="I28">
-        <v>-3.967987436785765e-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>-0.006667742395701728</v>
+      </c>
+      <c r="J28">
+        <v>-0.005076600133413202</v>
+      </c>
+      <c r="K28">
+        <v>0.001786516630175451</v>
+      </c>
+      <c r="L28">
+        <v>-0.04352419675245249</v>
+      </c>
+      <c r="M28">
+        <v>-0.04398604455138519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.05256856524201387</v>
+        <v>-0.04455215291366875</v>
       </c>
       <c r="C29">
-        <v>-0.02039499847257563</v>
+        <v>-0.0231336479096924</v>
       </c>
       <c r="D29">
-        <v>-0.007459578388772685</v>
+        <v>-0.002867896697559624</v>
       </c>
       <c r="E29">
-        <v>0.01639148416674708</v>
+        <v>-0.01964736376948598</v>
       </c>
       <c r="F29">
-        <v>-0.004441148711160899</v>
+        <v>0.0466961889272493</v>
       </c>
       <c r="G29">
-        <v>-0.01560975511346101</v>
+        <v>0.03869777105135542</v>
       </c>
       <c r="H29">
-        <v>0.02784529729420559</v>
+        <v>-0.04896001559708799</v>
       </c>
       <c r="I29">
-        <v>-0.01242254730272749</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>-0.009744938203208358</v>
+      </c>
+      <c r="J29">
+        <v>-0.0234937792436166</v>
+      </c>
+      <c r="K29">
+        <v>-0.04198912752610846</v>
+      </c>
+      <c r="L29">
+        <v>-0.03267855436072333</v>
+      </c>
+      <c r="M29">
+        <v>-0.01797869621540567</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1223957380389499</v>
+        <v>-0.09761670598298705</v>
       </c>
       <c r="C30">
-        <v>-0.06556194721438023</v>
+        <v>-0.06528862502526318</v>
       </c>
       <c r="D30">
-        <v>-0.0601009025757975</v>
+        <v>-0.001719537503722046</v>
       </c>
       <c r="E30">
-        <v>0.07581631193391836</v>
+        <v>-0.02742467786002432</v>
       </c>
       <c r="F30">
-        <v>-0.01292630201422618</v>
+        <v>0.1777012636618047</v>
       </c>
       <c r="G30">
-        <v>0.01714386580232258</v>
+        <v>0.04485145599139545</v>
       </c>
       <c r="H30">
-        <v>-0.03565639811827014</v>
+        <v>0.02147716821418906</v>
       </c>
       <c r="I30">
-        <v>-0.06791449769724886</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>-0.2584816731142114</v>
+      </c>
+      <c r="J30">
+        <v>-0.1614415566509271</v>
+      </c>
+      <c r="K30">
+        <v>0.04448206465363309</v>
+      </c>
+      <c r="L30">
+        <v>-0.1710836330674103</v>
+      </c>
+      <c r="M30">
+        <v>-0.2903171638101943</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.04736897091279155</v>
+        <v>-0.0350161718298557</v>
       </c>
       <c r="C31">
-        <v>-0.02377876705592171</v>
+        <v>-0.04498073747056316</v>
       </c>
       <c r="D31">
-        <v>0.007073405319782598</v>
+        <v>-0.007210132532648062</v>
       </c>
       <c r="E31">
-        <v>-0.01411368003760975</v>
+        <v>0.008993950895252371</v>
       </c>
       <c r="F31">
-        <v>-0.02390352217219249</v>
+        <v>0.0149620885239609</v>
       </c>
       <c r="G31">
-        <v>-0.04209179073307916</v>
+        <v>0.02929658624088003</v>
       </c>
       <c r="H31">
-        <v>0.001911055409938796</v>
+        <v>-0.0431020451100541</v>
       </c>
       <c r="I31">
-        <v>-0.01928414683766627</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.02356198833518669</v>
+      </c>
+      <c r="J31">
+        <v>-0.02146019071544792</v>
+      </c>
+      <c r="K31">
+        <v>0.0117769673276956</v>
+      </c>
+      <c r="L31">
+        <v>-0.01605682503119537</v>
+      </c>
+      <c r="M31">
+        <v>0.0005997699232484897</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.01918544934149837</v>
+        <v>-0.04330696659423503</v>
       </c>
       <c r="C32">
-        <v>0.007914841971362208</v>
+        <v>0.005190992911433485</v>
       </c>
       <c r="D32">
-        <v>0.03127388171662976</v>
+        <v>0.007805960958976036</v>
       </c>
       <c r="E32">
-        <v>0.08591900665555197</v>
+        <v>-0.009402031951653299</v>
       </c>
       <c r="F32">
-        <v>0.03834933566537796</v>
+        <v>0.0840910691026749</v>
       </c>
       <c r="G32">
-        <v>-0.03168612986038156</v>
+        <v>-0.03246516947229618</v>
       </c>
       <c r="H32">
-        <v>-0.05749418475312203</v>
+        <v>-0.05225670031916842</v>
       </c>
       <c r="I32">
-        <v>-0.04475370705721497</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.06446696444561316</v>
+      </c>
+      <c r="J32">
+        <v>0.03865789742827346</v>
+      </c>
+      <c r="K32">
+        <v>0.01605375207940033</v>
+      </c>
+      <c r="L32">
+        <v>-0.0539909886042212</v>
+      </c>
+      <c r="M32">
+        <v>-0.1393529465278727</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.1003037520258523</v>
+        <v>-0.09768880848015592</v>
       </c>
       <c r="C33">
-        <v>-0.05688647738145396</v>
+        <v>-0.06629027157287333</v>
       </c>
       <c r="D33">
-        <v>0.002976818947469972</v>
+        <v>0.009191475295198424</v>
       </c>
       <c r="E33">
-        <v>0.001058919822313162</v>
+        <v>0.01600557481997351</v>
       </c>
       <c r="F33">
-        <v>0.01835566256975705</v>
+        <v>0.06815757862843715</v>
       </c>
       <c r="G33">
-        <v>-0.05063553108681938</v>
+        <v>0.03171876230852842</v>
       </c>
       <c r="H33">
-        <v>-0.01899135174136089</v>
+        <v>-0.05195821319310664</v>
       </c>
       <c r="I33">
-        <v>-0.05254064158711187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>-0.03032324713498977</v>
+      </c>
+      <c r="J33">
+        <v>-0.0265858784836084</v>
+      </c>
+      <c r="K33">
+        <v>-0.03275382809386366</v>
+      </c>
+      <c r="L33">
+        <v>-0.01099995850593332</v>
+      </c>
+      <c r="M33">
+        <v>-0.003404442986325219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05381894721122191</v>
+        <v>-0.06333823234248881</v>
       </c>
       <c r="C34">
-        <v>-0.08348804966426429</v>
+        <v>-0.06312511722952797</v>
       </c>
       <c r="D34">
-        <v>-0.02077128128713175</v>
+        <v>0.02655739637937712</v>
       </c>
       <c r="E34">
-        <v>0.03965839768390782</v>
+        <v>-0.0137269095495363</v>
       </c>
       <c r="F34">
-        <v>0.02372643773448661</v>
+        <v>0.09827433836689475</v>
       </c>
       <c r="G34">
-        <v>-0.0198326202950296</v>
+        <v>0.02536906681034484</v>
       </c>
       <c r="H34">
-        <v>-0.02820725004953737</v>
+        <v>-0.04897620570405799</v>
       </c>
       <c r="I34">
-        <v>-0.09553151198307093</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>-0.04615172134947555</v>
+      </c>
+      <c r="J34">
+        <v>0.01078672182111407</v>
+      </c>
+      <c r="K34">
+        <v>0.05558136294222624</v>
+      </c>
+      <c r="L34">
+        <v>0.01248271556505822</v>
+      </c>
+      <c r="M34">
+        <v>0.1065144268675003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.04229429506070318</v>
+        <v>-0.0256576294816424</v>
       </c>
       <c r="C35">
-        <v>-0.03897021631897538</v>
+        <v>-0.02408371450096858</v>
       </c>
       <c r="D35">
-        <v>-0.007433147510173083</v>
+        <v>-0.001406018199309159</v>
       </c>
       <c r="E35">
-        <v>0.006547915049428797</v>
+        <v>0.002121891054991987</v>
       </c>
       <c r="F35">
-        <v>0.004656553353605375</v>
+        <v>0.02009233644362966</v>
       </c>
       <c r="G35">
-        <v>-0.02902614573310487</v>
+        <v>0.02417430624292963</v>
       </c>
       <c r="H35">
-        <v>-0.009467344860870221</v>
+        <v>-0.03900951248189647</v>
       </c>
       <c r="I35">
-        <v>-0.05617776364429917</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>-0.05178621669955331</v>
+      </c>
+      <c r="J35">
+        <v>0.005959031882895537</v>
+      </c>
+      <c r="K35">
+        <v>0.01943321119773428</v>
+      </c>
+      <c r="L35">
+        <v>-0.05570313237507137</v>
+      </c>
+      <c r="M35">
+        <v>-0.004253078808034751</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.03001016125327517</v>
+        <v>-0.02935685879189552</v>
       </c>
       <c r="C36">
-        <v>-0.02181462950888102</v>
+        <v>-0.02097298318547451</v>
       </c>
       <c r="D36">
-        <v>-0.02576029536094994</v>
+        <v>-0.01493298523527827</v>
       </c>
       <c r="E36">
-        <v>0.01852029499858149</v>
+        <v>-0.01363824469349313</v>
       </c>
       <c r="F36">
-        <v>0.00491595414722639</v>
+        <v>0.06051880521118506</v>
       </c>
       <c r="G36">
-        <v>-0.03974068721108925</v>
+        <v>0.01468240124014978</v>
       </c>
       <c r="H36">
-        <v>0.02616940308031146</v>
+        <v>-0.03886171120260724</v>
       </c>
       <c r="I36">
-        <v>-0.08101098776957934</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>-0.0292925886279646</v>
+      </c>
+      <c r="J36">
+        <v>-0.04127386712712006</v>
+      </c>
+      <c r="K36">
+        <v>-0.01929308062898904</v>
+      </c>
+      <c r="L36">
+        <v>-0.03780098730160485</v>
+      </c>
+      <c r="M36">
+        <v>0.03198108650521179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1779,126 +2223,186 @@
       <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.04185826437576841</v>
+        <v>-0.03059489492982114</v>
       </c>
       <c r="C38">
-        <v>-0.02996860328408943</v>
+        <v>-0.04777934235463784</v>
       </c>
       <c r="D38">
-        <v>0.02294660433701802</v>
+        <v>-0.02269924482103595</v>
       </c>
       <c r="E38">
-        <v>0.03673038724850516</v>
+        <v>-0.004086660606381313</v>
       </c>
       <c r="F38">
-        <v>0.006458628988403967</v>
+        <v>-0.04232009327344394</v>
       </c>
       <c r="G38">
-        <v>-0.01274200807563717</v>
+        <v>0.04940814862991253</v>
       </c>
       <c r="H38">
-        <v>-0.04691360370290933</v>
+        <v>0.03488861953354287</v>
       </c>
       <c r="I38">
-        <v>-0.03570161367686651</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>-0.01807934915995858</v>
+      </c>
+      <c r="J38">
+        <v>0.05261709105732335</v>
+      </c>
+      <c r="K38">
+        <v>-0.1012124030501374</v>
+      </c>
+      <c r="L38">
+        <v>-0.07241671480191757</v>
+      </c>
+      <c r="M38">
+        <v>-0.1459849594606265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.09429310434633292</v>
+        <v>-0.09971639342714038</v>
       </c>
       <c r="C39">
-        <v>-0.1001722003337988</v>
+        <v>-0.09033186802848715</v>
       </c>
       <c r="D39">
-        <v>-0.01401097295345204</v>
+        <v>0.08435151074500348</v>
       </c>
       <c r="E39">
-        <v>0.03169316617326341</v>
+        <v>0.01313831414197736</v>
       </c>
       <c r="F39">
-        <v>0.04782513374453336</v>
+        <v>0.1522483405806475</v>
       </c>
       <c r="G39">
-        <v>0.0107109027652807</v>
+        <v>0.09601360773166888</v>
       </c>
       <c r="H39">
-        <v>-0.1154151580636468</v>
+        <v>0.00807201490178967</v>
       </c>
       <c r="I39">
-        <v>-0.1519722339424633</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>-0.1491749646166489</v>
+      </c>
+      <c r="J39">
+        <v>0.04713792860732621</v>
+      </c>
+      <c r="K39">
+        <v>0.1896578687006622</v>
+      </c>
+      <c r="L39">
+        <v>-0.01952175374277703</v>
+      </c>
+      <c r="M39">
+        <v>-0.06874586379171214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.05588413164683347</v>
+        <v>-0.03422040621637325</v>
       </c>
       <c r="C40">
-        <v>-0.05059558747022594</v>
+        <v>-0.05791895825817486</v>
       </c>
       <c r="D40">
-        <v>0.05233353330129031</v>
+        <v>-0.05074855208309111</v>
       </c>
       <c r="E40">
-        <v>0.1371008697241052</v>
+        <v>0.00236650981108657</v>
       </c>
       <c r="F40">
-        <v>0.02839781512935576</v>
+        <v>0.1224326610194207</v>
       </c>
       <c r="G40">
-        <v>-0.05938995867732124</v>
+        <v>-0.06019713220250651</v>
       </c>
       <c r="H40">
-        <v>-0.1172127696336079</v>
+        <v>-0.02255836872809745</v>
       </c>
       <c r="I40">
-        <v>-0.2365899742144656</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>-0.0522691483057877</v>
+      </c>
+      <c r="J40">
+        <v>0.08413738268441152</v>
+      </c>
+      <c r="K40">
+        <v>-0.07298117353587365</v>
+      </c>
+      <c r="L40">
+        <v>-0.08874357096873416</v>
+      </c>
+      <c r="M40">
+        <v>-0.004068316263088526</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04437004877692916</v>
+        <v>-0.03549357907530588</v>
       </c>
       <c r="C41">
-        <v>-0.05385473301625406</v>
+        <v>-0.03667562132482549</v>
       </c>
       <c r="D41">
-        <v>-0.01110535428107192</v>
+        <v>0.01867302467710783</v>
       </c>
       <c r="E41">
-        <v>-0.005571737890510903</v>
+        <v>0.0007952068387679231</v>
       </c>
       <c r="F41">
-        <v>0.01646794197297727</v>
+        <v>0.01782977680454243</v>
       </c>
       <c r="G41">
-        <v>-0.02295118933992423</v>
+        <v>0.02932312552574371</v>
       </c>
       <c r="H41">
-        <v>-0.02666162518035594</v>
+        <v>-0.009809109301588398</v>
       </c>
       <c r="I41">
-        <v>-0.06171159518462065</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>3.720145609052278e-05</v>
+      </c>
+      <c r="J41">
+        <v>0.0120192546784245</v>
+      </c>
+      <c r="K41">
+        <v>-0.009658144509525126</v>
+      </c>
+      <c r="L41">
+        <v>-0.04504152995463149</v>
+      </c>
+      <c r="M41">
+        <v>0.02711868680066626</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1924,68 +2428,104 @@
       <c r="I42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.05598345069980715</v>
+        <v>-0.05021923624044908</v>
       </c>
       <c r="C43">
-        <v>-0.04374232550829193</v>
+        <v>-0.04708959956804308</v>
       </c>
       <c r="D43">
-        <v>-0.0268369842366588</v>
+        <v>-0.01372571324096106</v>
       </c>
       <c r="E43">
-        <v>0.01926509521126008</v>
+        <v>-0.01152887859467614</v>
       </c>
       <c r="F43">
-        <v>-0.01478527084319923</v>
+        <v>0.01190162432840801</v>
       </c>
       <c r="G43">
-        <v>-0.0296260762092935</v>
+        <v>0.06367353906540572</v>
       </c>
       <c r="H43">
-        <v>-0.0171945835941009</v>
+        <v>0.0001778930370214575</v>
       </c>
       <c r="I43">
-        <v>-0.03499999324894447</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>-0.005306829740978879</v>
+      </c>
+      <c r="J43">
+        <v>0.005946931465634673</v>
+      </c>
+      <c r="K43">
+        <v>0.01155170082771925</v>
+      </c>
+      <c r="L43">
+        <v>-0.02891656436277489</v>
+      </c>
+      <c r="M43">
+        <v>0.008316499348681568</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.05105071525489206</v>
+        <v>-0.08313459274630293</v>
       </c>
       <c r="C44">
-        <v>-0.01580174303632722</v>
+        <v>-0.05942133689066566</v>
       </c>
       <c r="D44">
-        <v>-0.06520482520123984</v>
+        <v>-0.06611601657833703</v>
       </c>
       <c r="E44">
-        <v>0.1362152500812782</v>
+        <v>-0.1017557972189596</v>
       </c>
       <c r="F44">
-        <v>0.04795338778997109</v>
+        <v>0.1607959118586209</v>
       </c>
       <c r="G44">
-        <v>-0.01693199044598672</v>
+        <v>0.012734798550899</v>
       </c>
       <c r="H44">
-        <v>-0.02047377476596714</v>
+        <v>-0.07484988198355547</v>
       </c>
       <c r="I44">
-        <v>-0.1339384002789223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>-0.06551500653589855</v>
+      </c>
+      <c r="J44">
+        <v>0.02525448643826275</v>
+      </c>
+      <c r="K44">
+        <v>0.003407479389757634</v>
+      </c>
+      <c r="L44">
+        <v>-0.04893939133877342</v>
+      </c>
+      <c r="M44">
+        <v>-0.02805831914899285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2011,329 +2551,473 @@
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.02070262155511949</v>
+        <v>-0.0333171916132934</v>
       </c>
       <c r="C46">
-        <v>-0.04450114096917329</v>
+        <v>-0.03731948022279398</v>
       </c>
       <c r="D46">
-        <v>-0.009992792231544194</v>
+        <v>-0.04583416855766542</v>
       </c>
       <c r="E46">
-        <v>0.04335351228310464</v>
+        <v>-0.03929719112012978</v>
       </c>
       <c r="F46">
-        <v>0.003395921577710993</v>
+        <v>0.02740594202572685</v>
       </c>
       <c r="G46">
-        <v>-0.007307102853546022</v>
+        <v>-0.007243320772297076</v>
       </c>
       <c r="H46">
-        <v>-0.008786885370211319</v>
+        <v>-0.0682524659390971</v>
       </c>
       <c r="I46">
-        <v>-0.04270343029811368</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.0008920525357686202</v>
+      </c>
+      <c r="J46">
+        <v>-0.02460637308300518</v>
+      </c>
+      <c r="K46">
+        <v>-0.05806126608074187</v>
+      </c>
+      <c r="L46">
+        <v>-0.06686638943006235</v>
+      </c>
+      <c r="M46">
+        <v>0.006686281090939586</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.02655720698866158</v>
+        <v>-0.04576643417551113</v>
       </c>
       <c r="C47">
-        <v>-0.0002072198298743351</v>
+        <v>-0.02700653593827923</v>
       </c>
       <c r="D47">
-        <v>0.01626980335777799</v>
+        <v>-0.0204574586359374</v>
       </c>
       <c r="E47">
-        <v>0.06434578854544193</v>
+        <v>-0.01002233822377659</v>
       </c>
       <c r="F47">
-        <v>-0.003263133077775744</v>
+        <v>0.0352163115201811</v>
       </c>
       <c r="G47">
-        <v>-0.0419956449338021</v>
+        <v>0.02761054531799963</v>
       </c>
       <c r="H47">
-        <v>0.04163083437654962</v>
+        <v>-0.02671100592435905</v>
       </c>
       <c r="I47">
-        <v>-0.03175916949137268</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>-0.0360544073676296</v>
+      </c>
+      <c r="J47">
+        <v>-0.02818303735686651</v>
+      </c>
+      <c r="K47">
+        <v>-0.0321336205337846</v>
+      </c>
+      <c r="L47">
+        <v>-0.01643629262898843</v>
+      </c>
+      <c r="M47">
+        <v>0.02373361950481347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03137074433414621</v>
+        <v>-0.04182096196768271</v>
       </c>
       <c r="C48">
-        <v>-0.02640535439825375</v>
+        <v>-0.02038363291108807</v>
       </c>
       <c r="D48">
-        <v>-0.002806563655012749</v>
+        <v>-0.01367212986145042</v>
       </c>
       <c r="E48">
-        <v>0.04031715133998052</v>
+        <v>-0.003639908251141419</v>
       </c>
       <c r="F48">
-        <v>-0.01417496958902573</v>
+        <v>0.06755607664582376</v>
       </c>
       <c r="G48">
-        <v>-0.05352846184185947</v>
+        <v>-0.02144003152821806</v>
       </c>
       <c r="H48">
-        <v>-0.003427435213230054</v>
+        <v>-0.05209081749990965</v>
       </c>
       <c r="I48">
-        <v>-0.05044689740458169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>-0.02931855221518341</v>
+      </c>
+      <c r="J48">
+        <v>-0.03448209157605719</v>
+      </c>
+      <c r="K48">
+        <v>0.01627896672499026</v>
+      </c>
+      <c r="L48">
+        <v>-0.04514866953687214</v>
+      </c>
+      <c r="M48">
+        <v>0.03359737289248774</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.1932592731542999</v>
+        <v>-0.2236876510228801</v>
       </c>
       <c r="C49">
-        <v>-0.12097970746742</v>
+        <v>-0.08329891506518627</v>
       </c>
       <c r="D49">
-        <v>-0.08445472552807892</v>
+        <v>0.0630693459508922</v>
       </c>
       <c r="E49">
-        <v>-0.06009907046758713</v>
+        <v>-0.02816417518482103</v>
       </c>
       <c r="F49">
-        <v>-0.1143153164505953</v>
+        <v>-0.2270125520816138</v>
       </c>
       <c r="G49">
-        <v>0.1630346408888571</v>
+        <v>-0.1447257468993274</v>
       </c>
       <c r="H49">
-        <v>-0.004610519922457233</v>
+        <v>0.02041322565477006</v>
       </c>
       <c r="I49">
-        <v>0.002386143543439769</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>-0.1350666067907491</v>
+      </c>
+      <c r="J49">
+        <v>0.1287512271178166</v>
+      </c>
+      <c r="K49">
+        <v>0.06902838199813377</v>
+      </c>
+      <c r="L49">
+        <v>0.148416544762072</v>
+      </c>
+      <c r="M49">
+        <v>0.06441203279149499</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05473591098115545</v>
+        <v>-0.04285785417008642</v>
       </c>
       <c r="C50">
-        <v>-0.0299325087336716</v>
+        <v>-0.04183151756302179</v>
       </c>
       <c r="D50">
-        <v>0.0006693499877779235</v>
+        <v>-0.004960731600861403</v>
       </c>
       <c r="E50">
-        <v>0.01166972269437537</v>
+        <v>0.01177395434504901</v>
       </c>
       <c r="F50">
-        <v>-0.004976501594712541</v>
+        <v>0.03863073308189498</v>
       </c>
       <c r="G50">
-        <v>-0.06504236824135359</v>
+        <v>0.03795074744636555</v>
       </c>
       <c r="H50">
-        <v>0.03483183878673778</v>
+        <v>-0.03311119686734906</v>
       </c>
       <c r="I50">
-        <v>-0.001081165010735532</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.008493059270083318</v>
+      </c>
+      <c r="J50">
+        <v>-0.04220122184025296</v>
+      </c>
+      <c r="K50">
+        <v>-0.03394866153370855</v>
+      </c>
+      <c r="L50">
+        <v>-0.02252375630504939</v>
+      </c>
+      <c r="M50">
+        <v>-0.02149626527141419</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.02669248828731367</v>
+        <v>-0.02977317693513828</v>
       </c>
       <c r="C51">
-        <v>-0.01938211929694111</v>
+        <v>-0.005718206233754355</v>
       </c>
       <c r="D51">
-        <v>0.004600111152616085</v>
+        <v>0.001355532004403647</v>
       </c>
       <c r="E51">
-        <v>0.01083124801707744</v>
+        <v>-0.02054210750950068</v>
       </c>
       <c r="F51">
-        <v>0.007340321805001597</v>
+        <v>-0.01779298413196845</v>
       </c>
       <c r="G51">
-        <v>0.02124129543117164</v>
+        <v>0.00587395533317273</v>
       </c>
       <c r="H51">
-        <v>-0.01112086265083432</v>
+        <v>0.01906515431922712</v>
       </c>
       <c r="I51">
-        <v>0.00590986130697032</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>-0.01769550216219871</v>
+      </c>
+      <c r="J51">
+        <v>0.02640243378805199</v>
+      </c>
+      <c r="K51">
+        <v>0.05572699462042743</v>
+      </c>
+      <c r="L51">
+        <v>0.06337176490113132</v>
+      </c>
+      <c r="M51">
+        <v>-0.01523926159724388</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.01549603973846718</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.005274432175237553</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01445460658716321</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.002188534549704514</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.0006684720276764705</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.002988305804456528</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>0.01163250791489641</v>
       </c>
       <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>-0.002865643473532377</v>
+      </c>
+      <c r="J52">
+        <v>-0.0004137825653737921</v>
+      </c>
+      <c r="K52">
+        <v>0.01512450673929578</v>
+      </c>
+      <c r="L52">
+        <v>-0.003681835111579036</v>
+      </c>
+      <c r="M52">
+        <v>-0.03189422520550191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1672311067212447</v>
+        <v>-0.1542841878997543</v>
       </c>
       <c r="C53">
-        <v>-0.01783935601718254</v>
+        <v>-0.04647668180198591</v>
       </c>
       <c r="D53">
-        <v>-0.02149630563652423</v>
+        <v>0.01455284277450048</v>
       </c>
       <c r="E53">
-        <v>-0.08184985906704079</v>
+        <v>0.01028553102205963</v>
       </c>
       <c r="F53">
-        <v>0.1700828579062507</v>
+        <v>-0.06977051724929492</v>
       </c>
       <c r="G53">
-        <v>-0.1999209341595968</v>
+        <v>0.2108394627666908</v>
       </c>
       <c r="H53">
-        <v>0.02267396903832102</v>
+        <v>-0.0345119128140443</v>
       </c>
       <c r="I53">
-        <v>0.07396963033279495</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.1210453685007823</v>
+      </c>
+      <c r="J53">
+        <v>-0.01261646126930969</v>
+      </c>
+      <c r="K53">
+        <v>-0.1032500934544661</v>
+      </c>
+      <c r="L53">
+        <v>0.05920059017611353</v>
+      </c>
+      <c r="M53">
+        <v>-0.08913657725119607</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.04533903243291706</v>
+        <v>-0.05855993044930188</v>
       </c>
       <c r="C54">
-        <v>-0.02803776835630365</v>
+        <v>-0.03153459335035524</v>
       </c>
       <c r="D54">
-        <v>-0.02737851391095174</v>
+        <v>-0.02051125269143726</v>
       </c>
       <c r="E54">
-        <v>0.03694883045352641</v>
+        <v>-0.02879858178733059</v>
       </c>
       <c r="F54">
-        <v>0.01222874734685287</v>
+        <v>0.1071022207834366</v>
       </c>
       <c r="G54">
-        <v>-0.0236274997665565</v>
+        <v>-0.01709764618720006</v>
       </c>
       <c r="H54">
-        <v>0.0008247131271778204</v>
+        <v>-0.05294121747495439</v>
       </c>
       <c r="I54">
-        <v>-0.0623835855549471</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.03570595826495825</v>
+      </c>
+      <c r="J54">
+        <v>-0.06372257526625091</v>
+      </c>
+      <c r="K54">
+        <v>-0.03495641718239044</v>
+      </c>
+      <c r="L54">
+        <v>-0.1076141152985654</v>
+      </c>
+      <c r="M54">
+        <v>0.02599032231236975</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.08989871121510888</v>
+        <v>-0.08614309486575369</v>
       </c>
       <c r="C55">
-        <v>-0.002565004351906007</v>
+        <v>-0.03641260627417835</v>
       </c>
       <c r="D55">
-        <v>-0.0111165184620734</v>
+        <v>0.02572309252011649</v>
       </c>
       <c r="E55">
-        <v>-0.01584673952019023</v>
+        <v>-0.0009529933199915838</v>
       </c>
       <c r="F55">
-        <v>0.1431839937706234</v>
+        <v>0.004201630944694668</v>
       </c>
       <c r="G55">
-        <v>-0.1783354194754551</v>
+        <v>0.1433100061253695</v>
       </c>
       <c r="H55">
-        <v>0.03873971708812162</v>
+        <v>-0.0406531611647258</v>
       </c>
       <c r="I55">
-        <v>0.05545241789709544</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.08058992706453355</v>
+      </c>
+      <c r="J55">
+        <v>-0.01100907460928949</v>
+      </c>
+      <c r="K55">
+        <v>-0.06899821891082077</v>
+      </c>
+      <c r="L55">
+        <v>0.04792119251426134</v>
+      </c>
+      <c r="M55">
+        <v>-0.01403627438593254</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1663900679594797</v>
+        <v>-0.1498172770334951</v>
       </c>
       <c r="C56">
-        <v>-0.02031995504276291</v>
+        <v>-0.06895764064750481</v>
       </c>
       <c r="D56">
-        <v>-0.04185614477070608</v>
+        <v>0.03268933596475479</v>
       </c>
       <c r="E56">
-        <v>-0.07624524097216442</v>
+        <v>-0.007893654416505561</v>
       </c>
       <c r="F56">
-        <v>0.1374107237478964</v>
+        <v>-0.03594676164415372</v>
       </c>
       <c r="G56">
-        <v>-0.1930347201019082</v>
+        <v>0.2088090109318461</v>
       </c>
       <c r="H56">
-        <v>0.02526646810277325</v>
+        <v>-0.01407663735026854</v>
       </c>
       <c r="I56">
-        <v>0.1200296823966688</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.1284381352782567</v>
+      </c>
+      <c r="J56">
+        <v>0.01140565462123819</v>
+      </c>
+      <c r="K56">
+        <v>-0.1087774800029147</v>
+      </c>
+      <c r="L56">
+        <v>0.04484296229869122</v>
+      </c>
+      <c r="M56">
+        <v>-0.03962491963647001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2359,1112 +3043,1580 @@
       <c r="I57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.03962325712777331</v>
+        <v>-0.03694754166450058</v>
       </c>
       <c r="C58">
-        <v>-0.04040423213644669</v>
+        <v>-0.03282216067215288</v>
       </c>
       <c r="D58">
-        <v>0.007190529206831643</v>
+        <v>-0.08399570497610712</v>
       </c>
       <c r="E58">
-        <v>0.314038121326653</v>
+        <v>-0.02215030050633259</v>
       </c>
       <c r="F58">
-        <v>-0.2189320669690138</v>
+        <v>0.03613479805613059</v>
       </c>
       <c r="G58">
-        <v>-0.009178470895833906</v>
+        <v>-0.05271502263221013</v>
       </c>
       <c r="H58">
-        <v>0.1708784182641394</v>
+        <v>-0.03365063031063318</v>
       </c>
       <c r="I58">
-        <v>-0.273092504693293</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>-0.1924363146284659</v>
+      </c>
+      <c r="J58">
+        <v>-0.1829238447909042</v>
+      </c>
+      <c r="K58">
+        <v>0.3352880229128655</v>
+      </c>
+      <c r="L58">
+        <v>0.003556406334549863</v>
+      </c>
+      <c r="M58">
+        <v>0.2009010008813832</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2471406755079036</v>
+        <v>-0.2279201645992399</v>
       </c>
       <c r="C59">
-        <v>0.4011801816101189</v>
+        <v>0.3010492954246207</v>
       </c>
       <c r="D59">
-        <v>-0.02906764403026739</v>
+        <v>0.04111281335185514</v>
       </c>
       <c r="E59">
-        <v>0.03040275382682604</v>
+        <v>-0.009083228766193973</v>
       </c>
       <c r="F59">
-        <v>0.06157926395793864</v>
+        <v>0.02748084196764531</v>
       </c>
       <c r="G59">
-        <v>-0.01481531508026075</v>
+        <v>0.05909627518629514</v>
       </c>
       <c r="H59">
-        <v>-0.07920941254351804</v>
+        <v>0.02014182664163172</v>
       </c>
       <c r="I59">
-        <v>-0.01961137418590183</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.1103249830073595</v>
+      </c>
+      <c r="J59">
+        <v>0.07632840941526058</v>
+      </c>
+      <c r="K59">
+        <v>0.04099490811758671</v>
+      </c>
+      <c r="L59">
+        <v>0.02793524077884672</v>
+      </c>
+      <c r="M59">
+        <v>-0.01671727839531167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2534108852553186</v>
+        <v>-0.2448863425936265</v>
       </c>
       <c r="C60">
-        <v>-0.07833137236686795</v>
+        <v>-0.1196353828790875</v>
       </c>
       <c r="D60">
-        <v>-0.09918380669781444</v>
+        <v>0.06626006279591187</v>
       </c>
       <c r="E60">
-        <v>0.02651553455386251</v>
+        <v>-0.04724940112371686</v>
       </c>
       <c r="F60">
-        <v>-0.04096584628277002</v>
+        <v>-0.09539748237520475</v>
       </c>
       <c r="G60">
-        <v>0.06058361162976501</v>
+        <v>-0.05072502014858062</v>
       </c>
       <c r="H60">
-        <v>0.05765991148934237</v>
+        <v>0.0999072222544954</v>
       </c>
       <c r="I60">
-        <v>0.2279548010772905</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>-0.004667936431662857</v>
+      </c>
+      <c r="J60">
+        <v>-0.05641430477471463</v>
+      </c>
+      <c r="K60">
+        <v>-0.03271044536398775</v>
+      </c>
+      <c r="L60">
+        <v>0.204861087553411</v>
+      </c>
+      <c r="M60">
+        <v>-0.06369798879262933</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.08427375270854651</v>
+        <v>-0.09135417773716023</v>
       </c>
       <c r="C61">
-        <v>-0.06600647863822851</v>
+        <v>-0.06408828288683979</v>
       </c>
       <c r="D61">
-        <v>-0.01720183995278334</v>
+        <v>0.04510622711364253</v>
       </c>
       <c r="E61">
-        <v>0.003222170579250683</v>
+        <v>-0.01511800917092679</v>
       </c>
       <c r="F61">
-        <v>0.01366310705058285</v>
+        <v>0.1168429422329854</v>
       </c>
       <c r="G61">
-        <v>-0.02102995714457494</v>
+        <v>0.08650205170563037</v>
       </c>
       <c r="H61">
-        <v>-0.05948368130795566</v>
+        <v>-0.02253528084874094</v>
       </c>
       <c r="I61">
-        <v>-0.06387751113796111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>-0.06129436002985633</v>
+      </c>
+      <c r="J61">
+        <v>0.03053595747894353</v>
+      </c>
+      <c r="K61">
+        <v>0.07120261646999164</v>
+      </c>
+      <c r="L61">
+        <v>-0.04112570206982647</v>
+      </c>
+      <c r="M61">
+        <v>-0.0284439568550307</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1646281217143535</v>
+        <v>-0.1409533259461752</v>
       </c>
       <c r="C62">
-        <v>-0.05848912079653662</v>
+        <v>-0.07411939211088069</v>
       </c>
       <c r="D62">
-        <v>-0.00425729810127325</v>
+        <v>0.03227771127864382</v>
       </c>
       <c r="E62">
-        <v>-0.1217436074366184</v>
+        <v>0.03878029998439844</v>
       </c>
       <c r="F62">
-        <v>0.1962240983748945</v>
+        <v>-0.03113765953593172</v>
       </c>
       <c r="G62">
-        <v>-0.1415035488654856</v>
+        <v>0.1570696630393144</v>
       </c>
       <c r="H62">
-        <v>-0.02006404386674898</v>
+        <v>-0.05425151040864001</v>
       </c>
       <c r="I62">
-        <v>0.05630355371950117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.1274463693524747</v>
+      </c>
+      <c r="J62">
+        <v>0.01051568335765602</v>
+      </c>
+      <c r="K62">
+        <v>-0.169632735395932</v>
+      </c>
+      <c r="L62">
+        <v>0.02104946551037984</v>
+      </c>
+      <c r="M62">
+        <v>0.03171132030329565</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.0432606235137861</v>
+        <v>-0.0446406300075893</v>
       </c>
       <c r="C63">
-        <v>-0.03698848716153784</v>
+        <v>-0.02592358974281243</v>
       </c>
       <c r="D63">
-        <v>-0.009508938783800061</v>
+        <v>0.005900354198790431</v>
       </c>
       <c r="E63">
-        <v>0.004921832319513579</v>
+        <v>0.01382495130068719</v>
       </c>
       <c r="F63">
-        <v>0.01770394139552791</v>
+        <v>0.05954547856496382</v>
       </c>
       <c r="G63">
-        <v>-0.02220780818045126</v>
+        <v>0.007571535215397602</v>
       </c>
       <c r="H63">
-        <v>0.04806314480365123</v>
+        <v>-0.02599850032381422</v>
       </c>
       <c r="I63">
-        <v>-0.06263222261934327</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>-0.02811522065497783</v>
+      </c>
+      <c r="J63">
+        <v>-0.03939547633596485</v>
+      </c>
+      <c r="K63">
+        <v>-0.005106643589545084</v>
+      </c>
+      <c r="L63">
+        <v>-0.01681616358500313</v>
+      </c>
+      <c r="M63">
+        <v>0.01151204421349089</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.1022979182899731</v>
+        <v>-0.1002829869410574</v>
       </c>
       <c r="C64">
-        <v>-0.02708150082864379</v>
+        <v>-0.04695308337901787</v>
       </c>
       <c r="D64">
-        <v>-0.03151230020208482</v>
+        <v>-0.004667643131648636</v>
       </c>
       <c r="E64">
-        <v>0.03839736416999855</v>
+        <v>-0.03924329167366623</v>
       </c>
       <c r="F64">
-        <v>-0.008825937920132119</v>
+        <v>0.0656447356336511</v>
       </c>
       <c r="G64">
-        <v>0.01119843962267889</v>
+        <v>0.0164685125720636</v>
       </c>
       <c r="H64">
-        <v>-0.03790330658227913</v>
+        <v>0.00270392031387766</v>
       </c>
       <c r="I64">
-        <v>-0.05387057355582134</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>-0.07325814077519141</v>
+      </c>
+      <c r="J64">
+        <v>-0.0210717288464411</v>
+      </c>
+      <c r="K64">
+        <v>0.02201732608914435</v>
+      </c>
+      <c r="L64">
+        <v>-0.03908844316974359</v>
+      </c>
+      <c r="M64">
+        <v>-0.0252164630278398</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.128512623623338</v>
+        <v>-0.1260252611783492</v>
       </c>
       <c r="C65">
-        <v>-0.05562033197830039</v>
+        <v>-0.04854750328020629</v>
       </c>
       <c r="D65">
-        <v>-0.04166072453957204</v>
+        <v>0.001420933221721173</v>
       </c>
       <c r="E65">
-        <v>0.130994766475709</v>
+        <v>0.01063035600062703</v>
       </c>
       <c r="F65">
-        <v>-0.1128457341990762</v>
+        <v>0.03921099078460767</v>
       </c>
       <c r="G65">
-        <v>0.0869361198544073</v>
+        <v>-0.2221645057775129</v>
       </c>
       <c r="H65">
-        <v>0.6737566806301837</v>
+        <v>0.1312520121467292</v>
       </c>
       <c r="I65">
-        <v>0.02984931268991164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>-0.01310589711138203</v>
+      </c>
+      <c r="J65">
+        <v>-0.5999977545658871</v>
+      </c>
+      <c r="K65">
+        <v>-0.2378677684376753</v>
+      </c>
+      <c r="L65">
+        <v>0.2028587674722343</v>
+      </c>
+      <c r="M65">
+        <v>-0.1077716874010547</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1523204371849067</v>
+        <v>-0.1279431541768936</v>
       </c>
       <c r="C66">
-        <v>-0.1449297934229848</v>
+        <v>-0.1327695250010162</v>
       </c>
       <c r="D66">
-        <v>-0.03209607184930583</v>
+        <v>0.1063788595775974</v>
       </c>
       <c r="E66">
-        <v>-0.008973325099757991</v>
+        <v>0.02661301323898979</v>
       </c>
       <c r="F66">
-        <v>0.1010211938319964</v>
+        <v>0.1656920655534324</v>
       </c>
       <c r="G66">
-        <v>0.0327744379121698</v>
+        <v>0.1024653788015867</v>
       </c>
       <c r="H66">
-        <v>-0.2373075583618198</v>
+        <v>-0.006271355907093832</v>
       </c>
       <c r="I66">
-        <v>-0.3122234064346058</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>-0.1552369879714541</v>
+      </c>
+      <c r="J66">
+        <v>0.1206717038595866</v>
+      </c>
+      <c r="K66">
+        <v>0.1723048741593396</v>
+      </c>
+      <c r="L66">
+        <v>-0.01793108380336096</v>
+      </c>
+      <c r="M66">
+        <v>-0.109472639055263</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.07816646459038488</v>
+        <v>-0.07998794952272177</v>
       </c>
       <c r="C67">
-        <v>-0.05067360606442178</v>
+        <v>-0.06122370269248768</v>
       </c>
       <c r="D67">
-        <v>-0.005283645117368352</v>
+        <v>-0.01557344978410246</v>
       </c>
       <c r="E67">
-        <v>0.006907475529659575</v>
+        <v>-0.01894197296221196</v>
       </c>
       <c r="F67">
-        <v>0.002803883325798664</v>
+        <v>-0.03718173836347224</v>
       </c>
       <c r="G67">
-        <v>0.006180078361937977</v>
+        <v>0.08828757089530201</v>
       </c>
       <c r="H67">
-        <v>-0.06268615281117887</v>
+        <v>0.07675073285106908</v>
       </c>
       <c r="I67">
-        <v>-0.03060878092862654</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>-0.002938776207413416</v>
+      </c>
+      <c r="J67">
+        <v>0.09396940495886963</v>
+      </c>
+      <c r="K67">
+        <v>-0.06822513894565728</v>
+      </c>
+      <c r="L67">
+        <v>-0.03715367088676258</v>
+      </c>
+      <c r="M67">
+        <v>-0.1050585491706949</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.1015363471611799</v>
+        <v>-0.1213067602910402</v>
       </c>
       <c r="C68">
-        <v>0.2744156951571632</v>
+        <v>0.2758387395443125</v>
       </c>
       <c r="D68">
-        <v>0.007070503945189384</v>
+        <v>0.001145776155639123</v>
       </c>
       <c r="E68">
-        <v>0.006467218291394894</v>
+        <v>-0.001303193976705477</v>
       </c>
       <c r="F68">
-        <v>-0.006478475040933906</v>
+        <v>0.02141813150194758</v>
       </c>
       <c r="G68">
-        <v>-0.04899732008274081</v>
+        <v>0.02835324441163526</v>
       </c>
       <c r="H68">
-        <v>0.01850239765858076</v>
+        <v>-0.0109171182094535</v>
       </c>
       <c r="I68">
-        <v>-0.0003941868966128983</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>-0.01809522470137137</v>
+      </c>
+      <c r="J68">
+        <v>-0.06707599025937983</v>
+      </c>
+      <c r="K68">
+        <v>-0.01148665629737231</v>
+      </c>
+      <c r="L68">
+        <v>-0.004131199596525622</v>
+      </c>
+      <c r="M68">
+        <v>-0.04459099075399402</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.03971230448292854</v>
+        <v>-0.04276082354027053</v>
       </c>
       <c r="C69">
-        <v>-0.02943212458621218</v>
+        <v>-0.0222863215383394</v>
       </c>
       <c r="D69">
-        <v>-0.006878707703379856</v>
+        <v>-0.00840968044988406</v>
       </c>
       <c r="E69">
-        <v>0.01566473200985348</v>
+        <v>0.0008153835747233523</v>
       </c>
       <c r="F69">
-        <v>0.03948952740804786</v>
+        <v>0.01810496000040162</v>
       </c>
       <c r="G69">
-        <v>-0.01883970209726979</v>
+        <v>0.04005788352885355</v>
       </c>
       <c r="H69">
-        <v>0.009908418330775963</v>
+        <v>0.0003303735163762673</v>
       </c>
       <c r="I69">
-        <v>-0.01406233855947687</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>-0.01327951139820443</v>
+      </c>
+      <c r="J69">
+        <v>0.008611764522677146</v>
+      </c>
+      <c r="K69">
+        <v>-0.02275155447315987</v>
+      </c>
+      <c r="L69">
+        <v>0.0008536841395822163</v>
+      </c>
+      <c r="M69">
+        <v>0.06213239376112843</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.04734031186569101</v>
+        <v>-0.05061259241762701</v>
       </c>
       <c r="C70">
-        <v>-0.006173114323595829</v>
+        <v>-0.03406420911610161</v>
       </c>
       <c r="D70">
-        <v>-0.03855446812470498</v>
+        <v>0.02224280683723292</v>
       </c>
       <c r="E70">
-        <v>-0.02240716245328273</v>
+        <v>-0.01894807420141588</v>
       </c>
       <c r="F70">
-        <v>-0.09687367427806176</v>
+        <v>7.769769533795425e-05</v>
       </c>
       <c r="G70">
-        <v>0.05499699972834776</v>
+        <v>-0.06733067063517471</v>
       </c>
       <c r="H70">
-        <v>-0.02644559973210293</v>
+        <v>-0.01443612002728875</v>
       </c>
       <c r="I70">
-        <v>-0.04132474015717578</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.029981103575492</v>
+      </c>
+      <c r="J70">
+        <v>-0.04320813037655215</v>
+      </c>
+      <c r="K70">
+        <v>-0.1308352060611894</v>
+      </c>
+      <c r="L70">
+        <v>-0.2791448390478951</v>
+      </c>
+      <c r="M70">
+        <v>0.1205629335126234</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.1055602003726019</v>
+        <v>-0.136289329322182</v>
       </c>
       <c r="C71">
-        <v>0.281212717724545</v>
+        <v>0.282669038255832</v>
       </c>
       <c r="D71">
-        <v>-0.02587780291410632</v>
+        <v>0.007487750144701083</v>
       </c>
       <c r="E71">
-        <v>-0.00279426717920355</v>
+        <v>-0.02113037902198698</v>
       </c>
       <c r="F71">
-        <v>-0.02599001270493693</v>
+        <v>0.02570430038146461</v>
       </c>
       <c r="G71">
-        <v>-0.03347807113126255</v>
+        <v>0.03214076243631968</v>
       </c>
       <c r="H71">
-        <v>-0.0003064771769095923</v>
+        <v>-0.006672597147398566</v>
       </c>
       <c r="I71">
-        <v>-0.04086697284589343</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>-0.03804176189206826</v>
+      </c>
+      <c r="J71">
+        <v>-0.02961302997617788</v>
+      </c>
+      <c r="K71">
+        <v>-0.001293974357372865</v>
+      </c>
+      <c r="L71">
+        <v>0.0001815232888373608</v>
+      </c>
+      <c r="M71">
+        <v>-0.02863405941773658</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1853501320190957</v>
+        <v>-0.1432681712793131</v>
       </c>
       <c r="C72">
-        <v>-0.04975993607732576</v>
+        <v>-0.03345915488859916</v>
       </c>
       <c r="D72">
-        <v>0.241429846857646</v>
+        <v>-0.004842025550370453</v>
       </c>
       <c r="E72">
-        <v>-0.03097524803263381</v>
+        <v>0.1859110280527439</v>
       </c>
       <c r="F72">
-        <v>0.08996442972064046</v>
+        <v>0.05529481428404674</v>
       </c>
       <c r="G72">
-        <v>0.07619093911754359</v>
+        <v>0.0004693617885385184</v>
       </c>
       <c r="H72">
-        <v>0.1095061490122058</v>
+        <v>0.06376670164359961</v>
       </c>
       <c r="I72">
-        <v>-0.01621170188524022</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.04934485296523501</v>
+      </c>
+      <c r="J72">
+        <v>-0.05671889626458848</v>
+      </c>
+      <c r="K72">
+        <v>-0.09390527618321319</v>
+      </c>
+      <c r="L72">
+        <v>0.1034981457145432</v>
+      </c>
+      <c r="M72">
+        <v>-0.01807198059651981</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2712380884521601</v>
+        <v>-0.2424602192965684</v>
       </c>
       <c r="C73">
-        <v>-0.1918619260558375</v>
+        <v>-0.1559707349025683</v>
       </c>
       <c r="D73">
-        <v>-0.1322351648415798</v>
+        <v>0.1580156121076109</v>
       </c>
       <c r="E73">
-        <v>-0.05115020745730595</v>
+        <v>-0.0884837800260997</v>
       </c>
       <c r="F73">
-        <v>-0.1717181007793692</v>
+        <v>-0.4211658133337705</v>
       </c>
       <c r="G73">
-        <v>0.09589942054875164</v>
+        <v>-0.1124402031346836</v>
       </c>
       <c r="H73">
-        <v>0.1504504099706792</v>
+        <v>0.2035309680311328</v>
       </c>
       <c r="I73">
-        <v>0.1908232363566159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>-0.3298102207548966</v>
+      </c>
+      <c r="J73">
+        <v>0.170512647094392</v>
+      </c>
+      <c r="K73">
+        <v>0.1429823806307224</v>
+      </c>
+      <c r="L73">
+        <v>0.2968437655542159</v>
+      </c>
+      <c r="M73">
+        <v>-0.1101889952633045</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09620353559413158</v>
+        <v>-0.09224918769552226</v>
       </c>
       <c r="C74">
-        <v>-0.03525686889753532</v>
+        <v>-0.070641216218092</v>
       </c>
       <c r="D74">
-        <v>-0.009405376167506493</v>
+        <v>0.01026491955347625</v>
       </c>
       <c r="E74">
-        <v>-0.03466967014698316</v>
+        <v>0.01672465044124245</v>
       </c>
       <c r="F74">
-        <v>0.06585791888019896</v>
+        <v>-0.04098325883824717</v>
       </c>
       <c r="G74">
-        <v>-0.1547515851947689</v>
+        <v>0.153148719343897</v>
       </c>
       <c r="H74">
-        <v>0.05516092900080139</v>
+        <v>-0.01600439176242722</v>
       </c>
       <c r="I74">
-        <v>0.01221599106861812</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>-0.0004730420088209458</v>
+      </c>
+      <c r="J74">
+        <v>0.009801557206721269</v>
+      </c>
+      <c r="K74">
+        <v>-0.05523032798138219</v>
+      </c>
+      <c r="L74">
+        <v>0.03583941517742911</v>
+      </c>
+      <c r="M74">
+        <v>-0.01189933763958213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.09574544191447944</v>
+        <v>-0.09116689135926997</v>
       </c>
       <c r="C75">
-        <v>-0.0207470645584044</v>
+        <v>-0.05037480125968641</v>
       </c>
       <c r="D75">
-        <v>-0.01343703659602264</v>
+        <v>0.005117818560974139</v>
       </c>
       <c r="E75">
-        <v>-0.03011419940810529</v>
+        <v>0.01532238131010883</v>
       </c>
       <c r="F75">
-        <v>0.07341454220099965</v>
+        <v>-0.01773227204874528</v>
       </c>
       <c r="G75">
-        <v>-0.08936773520554346</v>
+        <v>0.09864319710886069</v>
       </c>
       <c r="H75">
-        <v>0.005091518306462986</v>
+        <v>-0.01664254356437282</v>
       </c>
       <c r="I75">
-        <v>0.09778752041573129</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.09211223334759497</v>
+      </c>
+      <c r="J75">
+        <v>0.0004504861781922666</v>
+      </c>
+      <c r="K75">
+        <v>-0.03807500028374687</v>
+      </c>
+      <c r="L75">
+        <v>0.02704729991537437</v>
+      </c>
+      <c r="M75">
+        <v>0.06718973156971773</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1292615915605305</v>
+        <v>-0.09258270839917597</v>
       </c>
       <c r="C76">
-        <v>-0.03442963092299541</v>
+        <v>-0.0646016577941029</v>
       </c>
       <c r="D76">
-        <v>-0.01080397999675477</v>
+        <v>0.00312911169393545</v>
       </c>
       <c r="E76">
-        <v>-0.01580972699473077</v>
+        <v>-0.007024821848219884</v>
       </c>
       <c r="F76">
-        <v>0.1399995032777021</v>
+        <v>-0.05028799736118111</v>
       </c>
       <c r="G76">
-        <v>-0.1916561886691878</v>
+        <v>0.190913073715846</v>
       </c>
       <c r="H76">
-        <v>0.0466075277316666</v>
+        <v>-0.04292960958901749</v>
       </c>
       <c r="I76">
-        <v>0.153883101527291</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.1213052206399019</v>
+      </c>
+      <c r="J76">
+        <v>-0.003277897608669399</v>
+      </c>
+      <c r="K76">
+        <v>-0.07157115786799008</v>
+      </c>
+      <c r="L76">
+        <v>0.03667469020895565</v>
+      </c>
+      <c r="M76">
+        <v>-0.07433061180330622</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.08763441412497523</v>
+        <v>-0.07531754855211104</v>
       </c>
       <c r="C77">
-        <v>-0.01219214641960861</v>
+        <v>-0.01824056699721345</v>
       </c>
       <c r="D77">
-        <v>-0.006287413833382051</v>
+        <v>0.007026013907003672</v>
       </c>
       <c r="E77">
-        <v>0.381467983228384</v>
+        <v>-0.05778310886365034</v>
       </c>
       <c r="F77">
-        <v>0.5255985689418626</v>
+        <v>0.4365394455303043</v>
       </c>
       <c r="G77">
-        <v>0.5779184485462848</v>
+        <v>-0.1847685372749017</v>
       </c>
       <c r="H77">
-        <v>-0.1040466719782261</v>
+        <v>0.6618066241018269</v>
       </c>
       <c r="I77">
-        <v>0.2676757225514781</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.1700665359064021</v>
+      </c>
+      <c r="J77">
+        <v>0.3284686869479826</v>
+      </c>
+      <c r="K77">
+        <v>-0.1489549119897668</v>
+      </c>
+      <c r="L77">
+        <v>0.04670112635987605</v>
+      </c>
+      <c r="M77">
+        <v>0.001125778195755096</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1365860484886959</v>
+        <v>-0.1654904895504014</v>
       </c>
       <c r="C78">
-        <v>-0.07802878148984338</v>
+        <v>-0.1221577587023991</v>
       </c>
       <c r="D78">
-        <v>-0.01653879348326154</v>
+        <v>-0.1760780132757945</v>
       </c>
       <c r="E78">
-        <v>0.1642535913315454</v>
+        <v>-0.1100165056947903</v>
       </c>
       <c r="F78">
-        <v>-0.05711482988661642</v>
+        <v>0.1168318481534865</v>
       </c>
       <c r="G78">
-        <v>-0.01182506487297406</v>
+        <v>-0.274884870397492</v>
       </c>
       <c r="H78">
-        <v>-0.1017818437863663</v>
+        <v>-0.2209302271352518</v>
       </c>
       <c r="I78">
-        <v>-0.06686567910741713</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.5862921939334071</v>
+      </c>
+      <c r="J78">
+        <v>0.0007439676878741634</v>
+      </c>
+      <c r="K78">
+        <v>0.4843057584157432</v>
+      </c>
+      <c r="L78">
+        <v>0.2214271045926932</v>
+      </c>
+      <c r="M78">
+        <v>-0.1002495577731978</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1401563640459716</v>
+        <v>-0.1344051633540188</v>
       </c>
       <c r="C79">
-        <v>-0.05431473631946741</v>
+        <v>-0.07354862748819786</v>
       </c>
       <c r="D79">
-        <v>-0.02400274631940091</v>
+        <v>0.004184330835060177</v>
       </c>
       <c r="E79">
-        <v>-0.04789492339266287</v>
+        <v>-0.001498416320062881</v>
       </c>
       <c r="F79">
-        <v>0.112142668258932</v>
+        <v>-0.002247875551786039</v>
       </c>
       <c r="G79">
-        <v>-0.1252900116449441</v>
+        <v>0.1517548289590952</v>
       </c>
       <c r="H79">
-        <v>0.004075329629166712</v>
+        <v>-0.02719824324354439</v>
       </c>
       <c r="I79">
-        <v>0.05851021938258669</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.07429462232792008</v>
+      </c>
+      <c r="J79">
+        <v>-0.003549842493133941</v>
+      </c>
+      <c r="K79">
+        <v>-0.1151988683577119</v>
+      </c>
+      <c r="L79">
+        <v>0.03639020971093389</v>
+      </c>
+      <c r="M79">
+        <v>0.02106269810493317</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.02596240463900576</v>
+        <v>-0.05384822013003983</v>
       </c>
       <c r="C80">
-        <v>0.006622076659381497</v>
+        <v>-0.02179639804685641</v>
       </c>
       <c r="D80">
-        <v>-0.004013619025356748</v>
+        <v>0.06330915128939112</v>
       </c>
       <c r="E80">
-        <v>-0.02877565643831058</v>
+        <v>-0.006199895118400082</v>
       </c>
       <c r="F80">
-        <v>0.005195284853911325</v>
+        <v>0.007779851214761904</v>
       </c>
       <c r="G80">
-        <v>0.01104266955018149</v>
+        <v>-0.01946879255566006</v>
       </c>
       <c r="H80">
-        <v>0.07263171556921988</v>
+        <v>-0.08098319955233149</v>
       </c>
       <c r="I80">
-        <v>-0.1028425856002042</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>-0.07271745122113905</v>
+      </c>
+      <c r="J80">
+        <v>-0.1001272674386357</v>
+      </c>
+      <c r="K80">
+        <v>0.04798866388351788</v>
+      </c>
+      <c r="L80">
+        <v>-0.06829749202295678</v>
+      </c>
+      <c r="M80">
+        <v>-0.06878438694221933</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1149432191202746</v>
+        <v>-0.1215981830385074</v>
       </c>
       <c r="C81">
-        <v>-0.05214664243665001</v>
+        <v>-0.05334751982742995</v>
       </c>
       <c r="D81">
-        <v>-0.03313133678212168</v>
+        <v>-0.001595396297448633</v>
       </c>
       <c r="E81">
-        <v>-0.03740852146506154</v>
+        <v>-0.002180596241567182</v>
       </c>
       <c r="F81">
-        <v>0.06570225156977684</v>
+        <v>0.007856188072053166</v>
       </c>
       <c r="G81">
-        <v>-0.08921373020292324</v>
+        <v>0.1388657647129312</v>
       </c>
       <c r="H81">
-        <v>0.009999873614953103</v>
+        <v>-0.05285208486928285</v>
       </c>
       <c r="I81">
-        <v>0.07535821962638101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.04760363912971945</v>
+      </c>
+      <c r="J81">
+        <v>0.0252708483718081</v>
+      </c>
+      <c r="K81">
+        <v>-0.05671267172375168</v>
+      </c>
+      <c r="L81">
+        <v>0.02938629319238963</v>
+      </c>
+      <c r="M81">
+        <v>0.09064798834606941</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1075946717836875</v>
+        <v>-0.1179104384045225</v>
       </c>
       <c r="C82">
-        <v>-0.0306654251926389</v>
+        <v>-0.05111548699060142</v>
       </c>
       <c r="D82">
-        <v>-0.05328214150077949</v>
+        <v>0.0276907270232235</v>
       </c>
       <c r="E82">
-        <v>-0.08899045924496923</v>
+        <v>0.007661256893313099</v>
       </c>
       <c r="F82">
-        <v>0.17464147947981</v>
+        <v>-0.03551845132764236</v>
       </c>
       <c r="G82">
-        <v>-0.2008831411147214</v>
+        <v>0.2299495870344626</v>
       </c>
       <c r="H82">
-        <v>-0.01690593961407711</v>
+        <v>-0.05686350852994492</v>
       </c>
       <c r="I82">
-        <v>0.02286878122254759</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.07856276867875013</v>
+      </c>
+      <c r="J82">
+        <v>0.0565065253789219</v>
+      </c>
+      <c r="K82">
+        <v>-0.09153491158623925</v>
+      </c>
+      <c r="L82">
+        <v>-0.05559502095009029</v>
+      </c>
+      <c r="M82">
+        <v>0.04156439966442813</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.05754681412328533</v>
+        <v>-0.07699681326490036</v>
       </c>
       <c r="C83">
-        <v>-0.04129138151914268</v>
+        <v>-0.06407127482787804</v>
       </c>
       <c r="D83">
-        <v>-0.03328288138274742</v>
+        <v>0.0141204540110756</v>
       </c>
       <c r="E83">
-        <v>-0.01371041912837223</v>
+        <v>-0.007690910017087303</v>
       </c>
       <c r="F83">
-        <v>-0.03412828450472674</v>
+        <v>0.002439139048799566</v>
       </c>
       <c r="G83">
-        <v>0.05978650934037541</v>
+        <v>0.04074795281704415</v>
       </c>
       <c r="H83">
-        <v>-0.08403556760108127</v>
+        <v>0.02784791477808639</v>
       </c>
       <c r="I83">
-        <v>-0.1098545786993647</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>-0.07033166867991146</v>
+      </c>
+      <c r="J83">
+        <v>-0.006900826415204228</v>
+      </c>
+      <c r="K83">
+        <v>0.04862630272819451</v>
+      </c>
+      <c r="L83">
+        <v>-0.1582203495593378</v>
+      </c>
+      <c r="M83">
+        <v>-0.09433247153442549</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.04734737371638398</v>
+        <v>-0.04814221457988804</v>
       </c>
       <c r="C84">
-        <v>-0.03926990189813089</v>
+        <v>0.02053800691951699</v>
       </c>
       <c r="D84">
-        <v>0.05327546084355238</v>
+        <v>0.007297463694366034</v>
       </c>
       <c r="E84">
-        <v>-0.03192705480021148</v>
+        <v>0.02047024722648359</v>
       </c>
       <c r="F84">
-        <v>-0.0732180314684702</v>
+        <v>0.002939434821491465</v>
       </c>
       <c r="G84">
-        <v>-0.0956601736849326</v>
+        <v>-0.2018713826728301</v>
       </c>
       <c r="H84">
-        <v>-0.0166973755450861</v>
+        <v>-0.2001486764054177</v>
       </c>
       <c r="I84">
-        <v>-0.02030781385204247</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>-0.09578658525412372</v>
+      </c>
+      <c r="J84">
+        <v>0.1215948137070295</v>
+      </c>
+      <c r="K84">
+        <v>0.007056042899188176</v>
+      </c>
+      <c r="L84">
+        <v>-0.1462543107939728</v>
+      </c>
+      <c r="M84">
+        <v>-0.5670537246450579</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.08314786664949364</v>
+        <v>-0.1078096456930035</v>
       </c>
       <c r="C85">
-        <v>-0.04757951992123121</v>
+        <v>-0.05164070159481478</v>
       </c>
       <c r="D85">
-        <v>-0.0483050376229105</v>
+        <v>0.0126180619128426</v>
       </c>
       <c r="E85">
-        <v>-0.02080699834233627</v>
+        <v>-0.02794318157848932</v>
       </c>
       <c r="F85">
-        <v>0.1360370489892465</v>
+        <v>0.0001245514878289695</v>
       </c>
       <c r="G85">
-        <v>-0.1329988111085538</v>
+        <v>0.1614302928109248</v>
       </c>
       <c r="H85">
-        <v>0.0455881200437796</v>
+        <v>-0.03482641169270394</v>
       </c>
       <c r="I85">
-        <v>0.04123506144048666</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.07521266763317631</v>
+      </c>
+      <c r="J85">
+        <v>-0.001359522185292948</v>
+      </c>
+      <c r="K85">
+        <v>-0.1101465806944575</v>
+      </c>
+      <c r="L85">
+        <v>0.06269804401611748</v>
+      </c>
+      <c r="M85">
+        <v>0.0389824027053725</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.03688451518520691</v>
+        <v>-0.07293044140188128</v>
       </c>
       <c r="C86">
-        <v>-0.05277983500360862</v>
+        <v>-0.0230574283550723</v>
       </c>
       <c r="D86">
-        <v>0.01105867399677156</v>
+        <v>-0.006082519100957711</v>
       </c>
       <c r="E86">
-        <v>0.03559305478282009</v>
+        <v>-0.1027740071464842</v>
       </c>
       <c r="F86">
-        <v>-0.006689263989340172</v>
+        <v>0.05614222349964493</v>
       </c>
       <c r="G86">
-        <v>0.05880653856384083</v>
+        <v>-0.4045552610284985</v>
       </c>
       <c r="H86">
-        <v>0.1463895388522789</v>
+        <v>-0.4719028297228154</v>
       </c>
       <c r="I86">
-        <v>-0.2212810146826078</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>-0.06183180063662914</v>
+      </c>
+      <c r="J86">
+        <v>0.3394597595912494</v>
+      </c>
+      <c r="K86">
+        <v>-0.4576490333649198</v>
+      </c>
+      <c r="L86">
+        <v>0.1599244769809227</v>
+      </c>
+      <c r="M86">
+        <v>0.02024629824714937</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.08685459332097462</v>
+        <v>-0.113814740763833</v>
       </c>
       <c r="C87">
-        <v>-0.06253688053360372</v>
+        <v>-0.06575422537678713</v>
       </c>
       <c r="D87">
-        <v>-0.01052984429336729</v>
+        <v>-0.03365987831757907</v>
       </c>
       <c r="E87">
-        <v>0.1489119015774949</v>
+        <v>-0.04053102346376138</v>
       </c>
       <c r="F87">
-        <v>0.1044898136200524</v>
+        <v>0.1513147325226686</v>
       </c>
       <c r="G87">
-        <v>0.1119497464339753</v>
+        <v>-0.09104895005462098</v>
       </c>
       <c r="H87">
-        <v>-0.0558860295633922</v>
+        <v>0.1492949537909944</v>
       </c>
       <c r="I87">
-        <v>-0.09023241047539103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>-0.03149226710431</v>
+      </c>
+      <c r="J87">
+        <v>0.08364391143804359</v>
+      </c>
+      <c r="K87">
+        <v>-0.05415196819823533</v>
+      </c>
+      <c r="L87">
+        <v>-0.1243616364137256</v>
+      </c>
+      <c r="M87">
+        <v>0.03684358591256096</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.04987816144860586</v>
+        <v>-0.05632816657243517</v>
       </c>
       <c r="C88">
-        <v>-0.03812529583096552</v>
+        <v>-0.05270660240566695</v>
       </c>
       <c r="D88">
-        <v>-0.02267953968670585</v>
+        <v>0.02778028125401989</v>
       </c>
       <c r="E88">
-        <v>0.007258441580876265</v>
+        <v>-0.01284079708306213</v>
       </c>
       <c r="F88">
-        <v>0.005413192161624324</v>
+        <v>0.02963067465515096</v>
       </c>
       <c r="G88">
-        <v>0.0167476418207457</v>
+        <v>0.03493049031344551</v>
       </c>
       <c r="H88">
-        <v>-0.02167663177474968</v>
+        <v>-0.01844213411307493</v>
       </c>
       <c r="I88">
-        <v>-0.05775634410457445</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>-0.04395717570838356</v>
+      </c>
+      <c r="J88">
+        <v>-0.00670824497308671</v>
+      </c>
+      <c r="K88">
+        <v>0.01759760186005543</v>
+      </c>
+      <c r="L88">
+        <v>-0.01648670709971042</v>
+      </c>
+      <c r="M88">
+        <v>0.0137215165074211</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1772051740472961</v>
+        <v>-0.2150872181822861</v>
       </c>
       <c r="C89">
-        <v>0.3202073332197322</v>
+        <v>0.3567515951766851</v>
       </c>
       <c r="D89">
-        <v>-0.07010155042406611</v>
+        <v>-0.04945282489776621</v>
       </c>
       <c r="E89">
-        <v>0.09346932094393157</v>
+        <v>-0.08053176344852546</v>
       </c>
       <c r="F89">
-        <v>-0.04409394336640229</v>
+        <v>0.009517896700149827</v>
       </c>
       <c r="G89">
-        <v>-0.003737234010879115</v>
+        <v>0.01059655353503699</v>
       </c>
       <c r="H89">
-        <v>0.005380089356307551</v>
+        <v>-0.03513566926683014</v>
       </c>
       <c r="I89">
-        <v>-0.06863381172997553</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>-0.03014143183485011</v>
+      </c>
+      <c r="J89">
+        <v>0.01297437322707093</v>
+      </c>
+      <c r="K89">
+        <v>0.07883830275338606</v>
+      </c>
+      <c r="L89">
+        <v>-0.008239202983542982</v>
+      </c>
+      <c r="M89">
+        <v>0.120947509405589</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1246461162038051</v>
+        <v>-0.1490255040558313</v>
       </c>
       <c r="C90">
-        <v>0.2808936526922555</v>
+        <v>0.2703972902207822</v>
       </c>
       <c r="D90">
-        <v>-0.004009430306729634</v>
+        <v>0.007766790619030793</v>
       </c>
       <c r="E90">
-        <v>0.05425908597551589</v>
+        <v>-0.02355868670607136</v>
       </c>
       <c r="F90">
-        <v>-0.001289151115399735</v>
+        <v>0.02891979848257747</v>
       </c>
       <c r="G90">
-        <v>0.04729207731566294</v>
+        <v>-0.00244814044884492</v>
       </c>
       <c r="H90">
-        <v>-0.03517030096864095</v>
+        <v>0.01882330486101742</v>
       </c>
       <c r="I90">
-        <v>-0.1148657062783389</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>-0.0587515754474653</v>
+      </c>
+      <c r="J90">
+        <v>-0.002318340891584158</v>
+      </c>
+      <c r="K90">
+        <v>0.02841796032865982</v>
+      </c>
+      <c r="L90">
+        <v>0.007126154324796765</v>
+      </c>
+      <c r="M90">
+        <v>-0.06308763615615623</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08289456335942062</v>
+        <v>-0.07871597768036732</v>
       </c>
       <c r="C91">
-        <v>-0.02730568851445372</v>
+        <v>-0.04968181661786893</v>
       </c>
       <c r="D91">
-        <v>-0.006119015732880516</v>
+        <v>-0.01168176866283979</v>
       </c>
       <c r="E91">
-        <v>0.01075226849192489</v>
+        <v>-0.006639722940648235</v>
       </c>
       <c r="F91">
-        <v>0.04105722366471971</v>
+        <v>-0.02051331573816245</v>
       </c>
       <c r="G91">
-        <v>-0.1042313447816145</v>
+        <v>0.08259665235226482</v>
       </c>
       <c r="H91">
-        <v>0.01198696118471902</v>
+        <v>-0.02110531490640255</v>
       </c>
       <c r="I91">
-        <v>0.07169504515899565</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.05124730632150922</v>
+      </c>
+      <c r="J91">
+        <v>0.02690302251985174</v>
+      </c>
+      <c r="K91">
+        <v>-0.02237756847293676</v>
+      </c>
+      <c r="L91">
+        <v>0.03215221517140079</v>
+      </c>
+      <c r="M91">
+        <v>0.0009416992745061768</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1482674093062519</v>
+        <v>-0.1627692192558207</v>
       </c>
       <c r="C92">
-        <v>0.299632193108256</v>
+        <v>0.3025352751374952</v>
       </c>
       <c r="D92">
-        <v>-0.04658658076029838</v>
+        <v>-0.03445507555156645</v>
       </c>
       <c r="E92">
-        <v>0.02380921492976359</v>
+        <v>-0.04572608431031271</v>
       </c>
       <c r="F92">
-        <v>-0.07431007762825766</v>
+        <v>0.01967262304593966</v>
       </c>
       <c r="G92">
-        <v>-0.04118460279590598</v>
+        <v>0.03620314571578857</v>
       </c>
       <c r="H92">
-        <v>0.00312649211551099</v>
+        <v>-0.02063646172793853</v>
       </c>
       <c r="I92">
-        <v>0.01341183280154113</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>-0.006401645039998901</v>
+      </c>
+      <c r="J92">
+        <v>-0.0090743414266125</v>
+      </c>
+      <c r="K92">
+        <v>0.04366121394063249</v>
+      </c>
+      <c r="L92">
+        <v>0.001122703534127813</v>
+      </c>
+      <c r="M92">
+        <v>0.07458268168496159</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1422070340128654</v>
+        <v>-0.164007062185341</v>
       </c>
       <c r="C93">
-        <v>0.2465299063696414</v>
+        <v>0.2864998963584489</v>
       </c>
       <c r="D93">
-        <v>-0.02345552364822764</v>
+        <v>0.02445726049030269</v>
       </c>
       <c r="E93">
-        <v>0.0233787788004182</v>
+        <v>-0.01137000101074605</v>
       </c>
       <c r="F93">
-        <v>-0.03302899115032869</v>
+        <v>0.006986178442038207</v>
       </c>
       <c r="G93">
-        <v>0.0199450509022375</v>
+        <v>-0.01242349612269445</v>
       </c>
       <c r="H93">
-        <v>-0.007961469042069675</v>
+        <v>-0.02218663574335081</v>
       </c>
       <c r="I93">
-        <v>-0.03510460760288968</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>-0.03741365275146424</v>
+      </c>
+      <c r="J93">
+        <v>-0.009814401026424236</v>
+      </c>
+      <c r="K93">
+        <v>-0.02285706838327329</v>
+      </c>
+      <c r="L93">
+        <v>-0.01923671786731511</v>
+      </c>
+      <c r="M93">
+        <v>-0.04100566562021795</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.08692696036372602</v>
+        <v>-0.1063907215075518</v>
       </c>
       <c r="C94">
-        <v>-0.06030027615747078</v>
+        <v>-0.07656386481340567</v>
       </c>
       <c r="D94">
-        <v>-0.006177299819035075</v>
+        <v>-0.01719046868001726</v>
       </c>
       <c r="E94">
-        <v>-0.00801250767936167</v>
+        <v>-0.01070571714417827</v>
       </c>
       <c r="F94">
-        <v>0.06949060713172996</v>
+        <v>-0.03616411553823412</v>
       </c>
       <c r="G94">
-        <v>-0.15268531053658</v>
+        <v>0.1200136959975638</v>
       </c>
       <c r="H94">
-        <v>0.0397627822085254</v>
+        <v>-0.03508342827717861</v>
       </c>
       <c r="I94">
-        <v>0.0843290803343026</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.05859514763091168</v>
+      </c>
+      <c r="J94">
+        <v>-0.02349962995006965</v>
+      </c>
+      <c r="K94">
+        <v>-0.02093883436250165</v>
+      </c>
+      <c r="L94">
+        <v>0.05443508463206004</v>
+      </c>
+      <c r="M94">
+        <v>0.02558585384823459</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.09748921625599223</v>
+        <v>-0.1296529693990983</v>
       </c>
       <c r="C95">
-        <v>-0.06961522307138865</v>
+        <v>-0.06954854554753376</v>
       </c>
       <c r="D95">
-        <v>-0.06912678421747272</v>
+        <v>-0.02137649277194338</v>
       </c>
       <c r="E95">
-        <v>0.02662140706054926</v>
+        <v>-0.06174271044868002</v>
       </c>
       <c r="F95">
-        <v>-0.05110719704994675</v>
+        <v>0.07148862625864322</v>
       </c>
       <c r="G95">
-        <v>-0.02083537333179929</v>
+        <v>-0.1820208700297022</v>
       </c>
       <c r="H95">
-        <v>0.01739015172157464</v>
+        <v>-0.0999794242695186</v>
       </c>
       <c r="I95">
-        <v>-0.2476020028328529</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>-0.2012605139546397</v>
+      </c>
+      <c r="J95">
+        <v>-0.04931190567596935</v>
+      </c>
+      <c r="K95">
+        <v>-0.06510775149801126</v>
+      </c>
+      <c r="L95">
+        <v>-0.002351937148765492</v>
+      </c>
+      <c r="M95">
+        <v>0.4880054476627072</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3490,97 +4642,145 @@
       <c r="I96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.268544057259889</v>
+        <v>-0.1646844714438615</v>
       </c>
       <c r="C97">
-        <v>-0.02341188766482801</v>
+        <v>0.0005957568342702832</v>
       </c>
       <c r="D97">
-        <v>0.8643166360890958</v>
+        <v>-0.1006445244136018</v>
       </c>
       <c r="E97">
-        <v>-0.1817131366282861</v>
+        <v>0.9301523635055275</v>
       </c>
       <c r="F97">
-        <v>-0.05860498902654744</v>
+        <v>0.04050575941181184</v>
       </c>
       <c r="G97">
-        <v>0.131237451714158</v>
+        <v>-0.1135652156376833</v>
       </c>
       <c r="H97">
-        <v>0.008698532192099031</v>
+        <v>-0.0386185665151917</v>
       </c>
       <c r="I97">
-        <v>-0.03667905997597417</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>-0.0271104479552761</v>
+      </c>
+      <c r="J97">
+        <v>0.0743619282549369</v>
+      </c>
+      <c r="K97">
+        <v>0.04338256844720068</v>
+      </c>
+      <c r="L97">
+        <v>0.01470586194534637</v>
+      </c>
+      <c r="M97">
+        <v>0.04497425460442489</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2786630851053824</v>
+        <v>-0.2651591928197787</v>
       </c>
       <c r="C98">
-        <v>-0.1122223355555094</v>
+        <v>-0.1182033087709553</v>
       </c>
       <c r="D98">
-        <v>-0.1964851318144864</v>
+        <v>0.01144860359949335</v>
       </c>
       <c r="E98">
-        <v>-0.2841922235945502</v>
+        <v>-0.01969685802418907</v>
       </c>
       <c r="F98">
-        <v>-0.4550674557986185</v>
+        <v>-0.4199698853473693</v>
       </c>
       <c r="G98">
-        <v>0.2603073627825437</v>
+        <v>-0.2455181496958611</v>
       </c>
       <c r="H98">
-        <v>-0.3333502508839483</v>
+        <v>0.1455260173866952</v>
       </c>
       <c r="I98">
-        <v>0.2177230888771752</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.2387795471949183</v>
+      </c>
+      <c r="J98">
+        <v>-0.0004104153727674803</v>
+      </c>
+      <c r="K98">
+        <v>0.04882258064827987</v>
+      </c>
+      <c r="L98">
+        <v>-0.6205088658049442</v>
+      </c>
+      <c r="M98">
+        <v>0.1024723794453763</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.05448906998265161</v>
+        <v>-0.06702874492671886</v>
       </c>
       <c r="C99">
-        <v>-0.05650696750681422</v>
+        <v>-0.05473111888748662</v>
       </c>
       <c r="D99">
-        <v>-0.0580141373119028</v>
+        <v>-0.01286885870197243</v>
       </c>
       <c r="E99">
-        <v>0.01417959883666552</v>
+        <v>-0.04675213211752265</v>
       </c>
       <c r="F99">
-        <v>0.01006906772135982</v>
+        <v>0.001512537118560556</v>
       </c>
       <c r="G99">
-        <v>0.03823682138823196</v>
+        <v>0.01900123589881571</v>
       </c>
       <c r="H99">
-        <v>-0.09207765999118606</v>
+        <v>0.01829143978580411</v>
       </c>
       <c r="I99">
-        <v>-0.04364420500937472</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.04654508704177093</v>
+      </c>
+      <c r="J99">
+        <v>0.06648863020115654</v>
+      </c>
+      <c r="K99">
+        <v>0.0153838851241202</v>
+      </c>
+      <c r="L99">
+        <v>-0.006144558782003561</v>
+      </c>
+      <c r="M99">
+        <v>0.128325070628348</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3606,39 +4806,63 @@
       <c r="I100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.05218403644329299</v>
+        <v>-0.04474340229067064</v>
       </c>
       <c r="C101">
-        <v>-0.02030128604761006</v>
+        <v>-0.02301684554296337</v>
       </c>
       <c r="D101">
-        <v>-0.008812780156841294</v>
+        <v>-0.002311584555280121</v>
       </c>
       <c r="E101">
-        <v>0.01558624173761687</v>
+        <v>-0.02091593269205191</v>
       </c>
       <c r="F101">
-        <v>-0.005289009736674449</v>
+        <v>0.04509625979486145</v>
       </c>
       <c r="G101">
-        <v>-0.01420593344727027</v>
+        <v>0.03943923914722585</v>
       </c>
       <c r="H101">
-        <v>0.02604927469166749</v>
+        <v>-0.04853259371165025</v>
       </c>
       <c r="I101">
-        <v>-0.01139586001477137</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>-0.008744716049772156</v>
+      </c>
+      <c r="J101">
+        <v>-0.0206814193964775</v>
+      </c>
+      <c r="K101">
+        <v>-0.03928305670113788</v>
+      </c>
+      <c r="L101">
+        <v>-0.03154545431960411</v>
+      </c>
+      <c r="M101">
+        <v>-0.01989841266998488</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3664,10 +4888,22 @@
       <c r="I102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3693,10 +4929,22 @@
       <c r="I103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3720,6 +4968,18 @@
         <v>0</v>
       </c>
       <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
